--- a/REGULAR/CHO/EGASAN, DELIA.xlsx
+++ b/REGULAR/CHO/EGASAN, DELIA.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1162" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="309">
   <si>
     <t>PERIOD</t>
   </si>
@@ -959,46 +959,7 @@
     <t>11/7-10/2023</t>
   </si>
   <si>
-    <t>12/7-10/2023</t>
-  </si>
-  <si>
-    <t>2024/7-10/202024</t>
-  </si>
-  <si>
-    <t>01/7-10/2024</t>
-  </si>
-  <si>
-    <t>02/7-10/2024</t>
-  </si>
-  <si>
-    <t>03/7-10/2024</t>
-  </si>
-  <si>
-    <t>04/7-10/2024</t>
-  </si>
-  <si>
-    <t>05/7-10/2024</t>
-  </si>
-  <si>
-    <t>06/7-10/2024</t>
-  </si>
-  <si>
-    <t>07/7-10/2024</t>
-  </si>
-  <si>
-    <t>08/7-10/2024</t>
-  </si>
-  <si>
-    <t>09/7-10/2024</t>
-  </si>
-  <si>
-    <t>10/7-10/2024</t>
-  </si>
-  <si>
-    <t>11/7-10/2024</t>
-  </si>
-  <si>
-    <t>12/7-10/2024</t>
+    <t>UT(1-0-0)</t>
   </si>
 </sst>
 </file>
@@ -1709,7 +1670,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K550" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K552" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -2038,12 +1999,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K550"/>
+  <dimension ref="A2:K552"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A494" activePane="bottomLeft"/>
       <selection activeCell="G11" sqref="G11"/>
-      <selection pane="bottomLeft" activeCell="K507" sqref="K507"/>
+      <selection pane="bottomLeft" activeCell="F510" sqref="F510"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2204,7 +2165,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>190.46999999999989</v>
+        <v>190.84299999999988</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2214,7 +2175,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>184.625</v>
+        <v>187.125</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -12969,11 +12930,15 @@
       <c r="A502" s="39">
         <v>45078</v>
       </c>
-      <c r="B502" s="20"/>
+      <c r="B502" s="20" t="s">
+        <v>140</v>
+      </c>
       <c r="C502" s="13">
         <v>1.25</v>
       </c>
-      <c r="D502" s="38"/>
+      <c r="D502" s="38">
+        <v>3.1000000000000014E-2</v>
+      </c>
       <c r="E502" s="9"/>
       <c r="F502" s="20"/>
       <c r="G502" s="13">
@@ -12989,11 +12954,15 @@
       <c r="A503" s="39">
         <v>45108</v>
       </c>
-      <c r="B503" s="20"/>
+      <c r="B503" s="20" t="s">
+        <v>301</v>
+      </c>
       <c r="C503" s="13">
         <v>1.25</v>
       </c>
-      <c r="D503" s="38"/>
+      <c r="D503" s="38">
+        <v>1</v>
+      </c>
       <c r="E503" s="9"/>
       <c r="F503" s="20"/>
       <c r="G503" s="13">
@@ -13003,7 +12972,9 @@
       <c r="H503" s="38"/>
       <c r="I503" s="9"/>
       <c r="J503" s="11"/>
-      <c r="K503" s="20"/>
+      <c r="K503" s="51">
+        <v>45121</v>
+      </c>
     </row>
     <row r="504" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A504" s="39">
@@ -13078,15 +13049,13 @@
       </c>
     </row>
     <row r="507" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A507" s="39">
-        <v>45231</v>
-      </c>
+      <c r="A507" s="39"/>
       <c r="B507" s="20" t="s">
-        <v>65</v>
+        <v>107</v>
       </c>
       <c r="C507" s="13"/>
       <c r="D507" s="38">
-        <v>4</v>
+        <v>9.4E-2</v>
       </c>
       <c r="E507" s="9"/>
       <c r="F507" s="20"/>
@@ -13097,35 +13066,43 @@
       <c r="H507" s="38"/>
       <c r="I507" s="9"/>
       <c r="J507" s="11"/>
-      <c r="K507" s="20" t="s">
-        <v>307</v>
-      </c>
+      <c r="K507" s="20"/>
     </row>
     <row r="508" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A508" s="39">
-        <v>45261</v>
-      </c>
-      <c r="B508" s="20"/>
-      <c r="C508" s="13"/>
-      <c r="D508" s="38"/>
+        <v>45231</v>
+      </c>
+      <c r="B508" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C508" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D508" s="38">
+        <v>4</v>
+      </c>
       <c r="E508" s="9"/>
       <c r="F508" s="20"/>
-      <c r="G508" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G508" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H508" s="38"/>
       <c r="I508" s="9"/>
       <c r="J508" s="11"/>
-      <c r="K508" s="20"/>
+      <c r="K508" s="20" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="509" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A509" s="47" t="s">
-        <v>306</v>
-      </c>
-      <c r="B509" s="20"/>
+      <c r="A509" s="39"/>
+      <c r="B509" s="20" t="s">
+        <v>308</v>
+      </c>
       <c r="C509" s="13"/>
-      <c r="D509" s="38"/>
+      <c r="D509" s="38">
+        <v>1</v>
+      </c>
       <c r="E509" s="9"/>
       <c r="F509" s="20"/>
       <c r="G509" s="13" t="str">
@@ -13139,16 +13116,22 @@
     </row>
     <row r="510" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A510" s="39">
-        <v>45292</v>
-      </c>
-      <c r="B510" s="20"/>
-      <c r="C510" s="13"/>
-      <c r="D510" s="38"/>
+        <v>45261</v>
+      </c>
+      <c r="B510" s="20" t="s">
+        <v>275</v>
+      </c>
+      <c r="C510" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D510" s="38">
+        <v>2E-3</v>
+      </c>
       <c r="E510" s="9"/>
       <c r="F510" s="20"/>
-      <c r="G510" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G510" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H510" s="38"/>
       <c r="I510" s="9"/>
@@ -13156,8 +13139,8 @@
       <c r="K510" s="20"/>
     </row>
     <row r="511" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A511" s="39">
-        <v>45323</v>
+      <c r="A511" s="47" t="s">
+        <v>306</v>
       </c>
       <c r="B511" s="20"/>
       <c r="C511" s="13"/>
@@ -13175,7 +13158,7 @@
     </row>
     <row r="512" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A512" s="39">
-        <v>45352</v>
+        <v>45292</v>
       </c>
       <c r="B512" s="20"/>
       <c r="C512" s="13"/>
@@ -13193,7 +13176,7 @@
     </row>
     <row r="513" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A513" s="39">
-        <v>45383</v>
+        <v>45323</v>
       </c>
       <c r="B513" s="20"/>
       <c r="C513" s="13"/>
@@ -13211,7 +13194,7 @@
     </row>
     <row r="514" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A514" s="39">
-        <v>45413</v>
+        <v>45352</v>
       </c>
       <c r="B514" s="20"/>
       <c r="C514" s="13"/>
@@ -13229,7 +13212,7 @@
     </row>
     <row r="515" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A515" s="39">
-        <v>45444</v>
+        <v>45383</v>
       </c>
       <c r="B515" s="20"/>
       <c r="C515" s="13"/>
@@ -13247,7 +13230,7 @@
     </row>
     <row r="516" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A516" s="39">
-        <v>45474</v>
+        <v>45413</v>
       </c>
       <c r="B516" s="20"/>
       <c r="C516" s="13"/>
@@ -13265,7 +13248,7 @@
     </row>
     <row r="517" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A517" s="39">
-        <v>45505</v>
+        <v>45444</v>
       </c>
       <c r="B517" s="20"/>
       <c r="C517" s="13"/>
@@ -13283,7 +13266,7 @@
     </row>
     <row r="518" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A518" s="39">
-        <v>45536</v>
+        <v>45474</v>
       </c>
       <c r="B518" s="20"/>
       <c r="C518" s="13"/>
@@ -13301,7 +13284,7 @@
     </row>
     <row r="519" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A519" s="39">
-        <v>45566</v>
+        <v>45505</v>
       </c>
       <c r="B519" s="20"/>
       <c r="C519" s="13"/>
@@ -13319,7 +13302,7 @@
     </row>
     <row r="520" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A520" s="39">
-        <v>45597</v>
+        <v>45536</v>
       </c>
       <c r="B520" s="20"/>
       <c r="C520" s="13"/>
@@ -13337,7 +13320,7 @@
     </row>
     <row r="521" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A521" s="39">
-        <v>45627</v>
+        <v>45566</v>
       </c>
       <c r="B521" s="20"/>
       <c r="C521" s="13"/>
@@ -13355,7 +13338,7 @@
     </row>
     <row r="522" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A522" s="39">
-        <v>45658</v>
+        <v>45597</v>
       </c>
       <c r="B522" s="20"/>
       <c r="C522" s="13"/>
@@ -13373,7 +13356,7 @@
     </row>
     <row r="523" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A523" s="39">
-        <v>45689</v>
+        <v>45627</v>
       </c>
       <c r="B523" s="20"/>
       <c r="C523" s="13"/>
@@ -13391,7 +13374,7 @@
     </row>
     <row r="524" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A524" s="39">
-        <v>45717</v>
+        <v>45658</v>
       </c>
       <c r="B524" s="20"/>
       <c r="C524" s="13"/>
@@ -13409,7 +13392,7 @@
     </row>
     <row r="525" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A525" s="39">
-        <v>45748</v>
+        <v>45689</v>
       </c>
       <c r="B525" s="20"/>
       <c r="C525" s="13"/>
@@ -13427,7 +13410,7 @@
     </row>
     <row r="526" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A526" s="39">
-        <v>45778</v>
+        <v>45717</v>
       </c>
       <c r="B526" s="20"/>
       <c r="C526" s="13"/>
@@ -13444,7 +13427,9 @@
       <c r="K526" s="20"/>
     </row>
     <row r="527" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A527" s="39"/>
+      <c r="A527" s="39">
+        <v>45748</v>
+      </c>
       <c r="B527" s="20"/>
       <c r="C527" s="13"/>
       <c r="D527" s="38"/>
@@ -13460,7 +13445,9 @@
       <c r="K527" s="20"/>
     </row>
     <row r="528" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A528" s="39"/>
+      <c r="A528" s="39">
+        <v>45778</v>
+      </c>
       <c r="B528" s="20"/>
       <c r="C528" s="13"/>
       <c r="D528" s="38"/>
@@ -13812,20 +13799,52 @@
       <c r="K549" s="20"/>
     </row>
     <row r="550" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A550" s="40"/>
-      <c r="B550" s="15"/>
-      <c r="C550" s="41"/>
-      <c r="D550" s="42"/>
+      <c r="A550" s="39"/>
+      <c r="B550" s="20"/>
+      <c r="C550" s="13"/>
+      <c r="D550" s="38"/>
       <c r="E550" s="9"/>
-      <c r="F550" s="15"/>
-      <c r="G550" s="41" t="str">
+      <c r="F550" s="20"/>
+      <c r="G550" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H550" s="42"/>
+      <c r="H550" s="38"/>
       <c r="I550" s="9"/>
-      <c r="J550" s="12"/>
-      <c r="K550" s="15"/>
+      <c r="J550" s="11"/>
+      <c r="K550" s="20"/>
+    </row>
+    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A551" s="39"/>
+      <c r="B551" s="20"/>
+      <c r="C551" s="13"/>
+      <c r="D551" s="38"/>
+      <c r="E551" s="9"/>
+      <c r="F551" s="20"/>
+      <c r="G551" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H551" s="38"/>
+      <c r="I551" s="9"/>
+      <c r="J551" s="11"/>
+      <c r="K551" s="20"/>
+    </row>
+    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A552" s="40"/>
+      <c r="B552" s="15"/>
+      <c r="C552" s="41"/>
+      <c r="D552" s="42"/>
+      <c r="E552" s="9"/>
+      <c r="F552" s="15"/>
+      <c r="G552" s="41" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H552" s="42"/>
+      <c r="I552" s="9"/>
+      <c r="J552" s="12"/>
+      <c r="K552" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -13941,15 +13960,13 @@
       <c r="D3" s="11">
         <v>0</v>
       </c>
-      <c r="E3" s="11">
-        <v>1</v>
-      </c>
+      <c r="E3" s="11"/>
       <c r="F3" s="11">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="G3" s="44">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>0.127</v>
+        <v>3.1000000000000014E-2</v>
       </c>
       <c r="J3" s="46"/>
       <c r="K3" s="34">

--- a/REGULAR/CHO/EGASAN, DELIA.xlsx
+++ b/REGULAR/CHO/EGASAN, DELIA.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="310">
   <si>
     <t>PERIOD</t>
   </si>
@@ -960,6 +960,9 @@
   </si>
   <si>
     <t>UT(1-0-0)</t>
+  </si>
+  <si>
+    <t>UT(0-1-3)</t>
   </si>
 </sst>
 </file>
@@ -1670,7 +1673,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K552" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K555" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -1999,12 +2002,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K552"/>
+  <dimension ref="A2:K555"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A494" activePane="bottomLeft"/>
       <selection activeCell="G11" sqref="G11"/>
-      <selection pane="bottomLeft" activeCell="F510" sqref="F510"/>
+      <selection pane="bottomLeft" activeCell="E503" sqref="E503"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2165,7 +2168,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>190.84299999999988</v>
+        <v>190.65299999999988</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -12807,84 +12810,78 @@
       </c>
     </row>
     <row r="497" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A497" s="39">
-        <v>44958</v>
-      </c>
+      <c r="A497" s="39"/>
       <c r="B497" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="C497" s="13">
-        <v>1.25</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="C497" s="13"/>
       <c r="D497" s="38">
-        <v>2</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="E497" s="9"/>
       <c r="F497" s="20"/>
-      <c r="G497" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G497" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H497" s="38"/>
       <c r="I497" s="9"/>
       <c r="J497" s="11"/>
-      <c r="K497" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="K497" s="51"/>
     </row>
     <row r="498" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A498" s="39">
-        <v>44986</v>
+        <v>44958</v>
       </c>
       <c r="B498" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C498" s="13">
         <v>1.25</v>
       </c>
-      <c r="D498" s="38"/>
+      <c r="D498" s="38">
+        <v>2</v>
+      </c>
       <c r="E498" s="9"/>
       <c r="F498" s="20"/>
       <c r="G498" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H498" s="38">
-        <v>1</v>
-      </c>
+      <c r="H498" s="38"/>
       <c r="I498" s="9"/>
       <c r="J498" s="11"/>
-      <c r="K498" s="51">
-        <v>45002</v>
+      <c r="K498" s="20" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="499" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A499" s="39"/>
       <c r="B499" s="20" t="s">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="C499" s="13"/>
-      <c r="D499" s="38"/>
+      <c r="D499" s="38">
+        <v>4.2000000000000003E-2</v>
+      </c>
       <c r="E499" s="9"/>
       <c r="F499" s="20"/>
       <c r="G499" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H499" s="38">
-        <v>1</v>
-      </c>
+      <c r="H499" s="38"/>
       <c r="I499" s="9"/>
       <c r="J499" s="11"/>
-      <c r="K499" s="51">
-        <v>44998</v>
-      </c>
+      <c r="K499" s="20"/>
     </row>
     <row r="500" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A500" s="39">
-        <v>45017</v>
-      </c>
-      <c r="B500" s="20"/>
+        <v>44986</v>
+      </c>
+      <c r="B500" s="20" t="s">
+        <v>46</v>
+      </c>
       <c r="C500" s="13">
         <v>1.25</v>
       </c>
@@ -12895,74 +12892,66 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H500" s="38"/>
+      <c r="H500" s="38">
+        <v>1</v>
+      </c>
       <c r="I500" s="9"/>
       <c r="J500" s="11"/>
-      <c r="K500" s="20"/>
+      <c r="K500" s="51">
+        <v>45002</v>
+      </c>
     </row>
     <row r="501" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A501" s="39">
-        <v>45047</v>
-      </c>
+      <c r="A501" s="39"/>
       <c r="B501" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="C501" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D501" s="38">
-        <v>1</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="C501" s="13"/>
+      <c r="D501" s="38"/>
       <c r="E501" s="9"/>
       <c r="F501" s="20"/>
-      <c r="G501" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H501" s="38"/>
+      <c r="G501" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H501" s="38">
+        <v>1</v>
+      </c>
       <c r="I501" s="9"/>
       <c r="J501" s="11"/>
       <c r="K501" s="51">
-        <v>45075</v>
+        <v>44998</v>
       </c>
     </row>
     <row r="502" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A502" s="39">
-        <v>45078</v>
-      </c>
+      <c r="A502" s="39"/>
       <c r="B502" s="20" t="s">
-        <v>140</v>
-      </c>
-      <c r="C502" s="13">
-        <v>1.25</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="C502" s="13"/>
       <c r="D502" s="38">
-        <v>3.1000000000000014E-2</v>
+        <v>0.13100000000000001</v>
       </c>
       <c r="E502" s="9"/>
       <c r="F502" s="20"/>
-      <c r="G502" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G502" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H502" s="38"/>
       <c r="I502" s="9"/>
       <c r="J502" s="11"/>
-      <c r="K502" s="20"/>
+      <c r="K502" s="51"/>
     </row>
     <row r="503" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A503" s="39">
-        <v>45108</v>
-      </c>
-      <c r="B503" s="20" t="s">
-        <v>301</v>
-      </c>
+        <v>45017</v>
+      </c>
+      <c r="B503" s="20"/>
       <c r="C503" s="13">
         <v>1.25</v>
       </c>
-      <c r="D503" s="38">
-        <v>1</v>
-      </c>
+      <c r="D503" s="38"/>
       <c r="E503" s="9"/>
       <c r="F503" s="20"/>
       <c r="G503" s="13">
@@ -12972,19 +12961,21 @@
       <c r="H503" s="38"/>
       <c r="I503" s="9"/>
       <c r="J503" s="11"/>
-      <c r="K503" s="51">
-        <v>45121</v>
-      </c>
+      <c r="K503" s="20"/>
     </row>
     <row r="504" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A504" s="39">
-        <v>45139</v>
-      </c>
-      <c r="B504" s="20"/>
+        <v>45047</v>
+      </c>
+      <c r="B504" s="20" t="s">
+        <v>64</v>
+      </c>
       <c r="C504" s="13">
         <v>1.25</v>
       </c>
-      <c r="D504" s="38"/>
+      <c r="D504" s="38">
+        <v>1</v>
+      </c>
       <c r="E504" s="9"/>
       <c r="F504" s="20"/>
       <c r="G504" s="13">
@@ -12994,74 +12985,74 @@
       <c r="H504" s="38"/>
       <c r="I504" s="9"/>
       <c r="J504" s="11"/>
-      <c r="K504" s="20"/>
+      <c r="K504" s="51">
+        <v>45075</v>
+      </c>
     </row>
     <row r="505" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A505" s="39">
-        <v>45170</v>
+        <v>45078</v>
       </c>
       <c r="B505" s="20" t="s">
-        <v>46</v>
+        <v>140</v>
       </c>
       <c r="C505" s="13">
         <v>1.25</v>
       </c>
-      <c r="D505" s="38"/>
+      <c r="D505" s="38">
+        <v>3.1000000000000014E-2</v>
+      </c>
       <c r="E505" s="9"/>
       <c r="F505" s="20"/>
       <c r="G505" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H505" s="38">
-        <v>1</v>
-      </c>
+      <c r="H505" s="38"/>
       <c r="I505" s="9"/>
       <c r="J505" s="11"/>
-      <c r="K505" s="51">
-        <v>45187</v>
-      </c>
+      <c r="K505" s="20"/>
     </row>
     <row r="506" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A506" s="39">
-        <v>45200</v>
+        <v>45108</v>
       </c>
       <c r="B506" s="20" t="s">
-        <v>52</v>
+        <v>301</v>
       </c>
       <c r="C506" s="13">
         <v>1.25</v>
       </c>
-      <c r="D506" s="38"/>
+      <c r="D506" s="38">
+        <v>1</v>
+      </c>
       <c r="E506" s="9"/>
       <c r="F506" s="20"/>
       <c r="G506" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H506" s="38">
-        <v>2</v>
-      </c>
+      <c r="H506" s="38"/>
       <c r="I506" s="9"/>
       <c r="J506" s="11"/>
-      <c r="K506" s="20" t="s">
-        <v>305</v>
+      <c r="K506" s="51">
+        <v>45121</v>
       </c>
     </row>
     <row r="507" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A507" s="39"/>
-      <c r="B507" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="C507" s="13"/>
-      <c r="D507" s="38">
-        <v>9.4E-2</v>
-      </c>
+      <c r="A507" s="39">
+        <v>45139</v>
+      </c>
+      <c r="B507" s="20"/>
+      <c r="C507" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D507" s="38"/>
       <c r="E507" s="9"/>
       <c r="F507" s="20"/>
-      <c r="G507" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G507" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H507" s="38"/>
       <c r="I507" s="9"/>
@@ -13070,68 +13061,70 @@
     </row>
     <row r="508" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A508" s="39">
-        <v>45231</v>
+        <v>45170</v>
       </c>
       <c r="B508" s="20" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="C508" s="13">
         <v>1.25</v>
       </c>
-      <c r="D508" s="38">
-        <v>4</v>
-      </c>
+      <c r="D508" s="38"/>
       <c r="E508" s="9"/>
       <c r="F508" s="20"/>
       <c r="G508" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H508" s="38"/>
+      <c r="H508" s="38">
+        <v>1</v>
+      </c>
       <c r="I508" s="9"/>
       <c r="J508" s="11"/>
-      <c r="K508" s="20" t="s">
-        <v>307</v>
+      <c r="K508" s="51">
+        <v>45187</v>
       </c>
     </row>
     <row r="509" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A509" s="39"/>
+      <c r="A509" s="39">
+        <v>45200</v>
+      </c>
       <c r="B509" s="20" t="s">
-        <v>308</v>
-      </c>
-      <c r="C509" s="13"/>
-      <c r="D509" s="38">
-        <v>1</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="C509" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D509" s="38"/>
       <c r="E509" s="9"/>
       <c r="F509" s="20"/>
-      <c r="G509" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H509" s="38"/>
+      <c r="G509" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H509" s="38">
+        <v>2</v>
+      </c>
       <c r="I509" s="9"/>
       <c r="J509" s="11"/>
-      <c r="K509" s="20"/>
+      <c r="K509" s="20" t="s">
+        <v>305</v>
+      </c>
     </row>
     <row r="510" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A510" s="39">
-        <v>45261</v>
-      </c>
+      <c r="A510" s="39"/>
       <c r="B510" s="20" t="s">
-        <v>275</v>
-      </c>
-      <c r="C510" s="13">
-        <v>1.25</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="C510" s="13"/>
       <c r="D510" s="38">
-        <v>2E-3</v>
+        <v>9.4E-2</v>
       </c>
       <c r="E510" s="9"/>
       <c r="F510" s="20"/>
-      <c r="G510" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G510" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H510" s="38"/>
       <c r="I510" s="9"/>
@@ -13139,30 +13132,40 @@
       <c r="K510" s="20"/>
     </row>
     <row r="511" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A511" s="47" t="s">
-        <v>306</v>
-      </c>
-      <c r="B511" s="20"/>
-      <c r="C511" s="13"/>
-      <c r="D511" s="38"/>
+      <c r="A511" s="39">
+        <v>45231</v>
+      </c>
+      <c r="B511" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C511" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D511" s="38">
+        <v>4</v>
+      </c>
       <c r="E511" s="9"/>
       <c r="F511" s="20"/>
-      <c r="G511" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G511" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H511" s="38"/>
       <c r="I511" s="9"/>
       <c r="J511" s="11"/>
-      <c r="K511" s="20"/>
+      <c r="K511" s="20" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="512" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A512" s="39">
-        <v>45292</v>
-      </c>
-      <c r="B512" s="20"/>
+      <c r="A512" s="39"/>
+      <c r="B512" s="20" t="s">
+        <v>308</v>
+      </c>
       <c r="C512" s="13"/>
-      <c r="D512" s="38"/>
+      <c r="D512" s="38">
+        <v>1</v>
+      </c>
       <c r="E512" s="9"/>
       <c r="F512" s="20"/>
       <c r="G512" s="13" t="str">
@@ -13176,16 +13179,22 @@
     </row>
     <row r="513" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A513" s="39">
-        <v>45323</v>
-      </c>
-      <c r="B513" s="20"/>
-      <c r="C513" s="13"/>
-      <c r="D513" s="38"/>
+        <v>45261</v>
+      </c>
+      <c r="B513" s="20" t="s">
+        <v>275</v>
+      </c>
+      <c r="C513" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D513" s="38">
+        <v>2E-3</v>
+      </c>
       <c r="E513" s="9"/>
       <c r="F513" s="20"/>
-      <c r="G513" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G513" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H513" s="38"/>
       <c r="I513" s="9"/>
@@ -13193,8 +13202,8 @@
       <c r="K513" s="20"/>
     </row>
     <row r="514" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A514" s="39">
-        <v>45352</v>
+      <c r="A514" s="47" t="s">
+        <v>306</v>
       </c>
       <c r="B514" s="20"/>
       <c r="C514" s="13"/>
@@ -13212,7 +13221,7 @@
     </row>
     <row r="515" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A515" s="39">
-        <v>45383</v>
+        <v>45292</v>
       </c>
       <c r="B515" s="20"/>
       <c r="C515" s="13"/>
@@ -13230,7 +13239,7 @@
     </row>
     <row r="516" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A516" s="39">
-        <v>45413</v>
+        <v>45323</v>
       </c>
       <c r="B516" s="20"/>
       <c r="C516" s="13"/>
@@ -13248,7 +13257,7 @@
     </row>
     <row r="517" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A517" s="39">
-        <v>45444</v>
+        <v>45352</v>
       </c>
       <c r="B517" s="20"/>
       <c r="C517" s="13"/>
@@ -13266,7 +13275,7 @@
     </row>
     <row r="518" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A518" s="39">
-        <v>45474</v>
+        <v>45383</v>
       </c>
       <c r="B518" s="20"/>
       <c r="C518" s="13"/>
@@ -13284,7 +13293,7 @@
     </row>
     <row r="519" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A519" s="39">
-        <v>45505</v>
+        <v>45413</v>
       </c>
       <c r="B519" s="20"/>
       <c r="C519" s="13"/>
@@ -13302,7 +13311,7 @@
     </row>
     <row r="520" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A520" s="39">
-        <v>45536</v>
+        <v>45444</v>
       </c>
       <c r="B520" s="20"/>
       <c r="C520" s="13"/>
@@ -13320,7 +13329,7 @@
     </row>
     <row r="521" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A521" s="39">
-        <v>45566</v>
+        <v>45474</v>
       </c>
       <c r="B521" s="20"/>
       <c r="C521" s="13"/>
@@ -13338,7 +13347,7 @@
     </row>
     <row r="522" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A522" s="39">
-        <v>45597</v>
+        <v>45505</v>
       </c>
       <c r="B522" s="20"/>
       <c r="C522" s="13"/>
@@ -13356,7 +13365,7 @@
     </row>
     <row r="523" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A523" s="39">
-        <v>45627</v>
+        <v>45536</v>
       </c>
       <c r="B523" s="20"/>
       <c r="C523" s="13"/>
@@ -13374,7 +13383,7 @@
     </row>
     <row r="524" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A524" s="39">
-        <v>45658</v>
+        <v>45566</v>
       </c>
       <c r="B524" s="20"/>
       <c r="C524" s="13"/>
@@ -13392,7 +13401,7 @@
     </row>
     <row r="525" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A525" s="39">
-        <v>45689</v>
+        <v>45597</v>
       </c>
       <c r="B525" s="20"/>
       <c r="C525" s="13"/>
@@ -13410,7 +13419,7 @@
     </row>
     <row r="526" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A526" s="39">
-        <v>45717</v>
+        <v>45627</v>
       </c>
       <c r="B526" s="20"/>
       <c r="C526" s="13"/>
@@ -13428,7 +13437,7 @@
     </row>
     <row r="527" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A527" s="39">
-        <v>45748</v>
+        <v>45658</v>
       </c>
       <c r="B527" s="20"/>
       <c r="C527" s="13"/>
@@ -13446,7 +13455,7 @@
     </row>
     <row r="528" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A528" s="39">
-        <v>45778</v>
+        <v>45689</v>
       </c>
       <c r="B528" s="20"/>
       <c r="C528" s="13"/>
@@ -13463,7 +13472,9 @@
       <c r="K528" s="20"/>
     </row>
     <row r="529" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A529" s="39"/>
+      <c r="A529" s="39">
+        <v>45717</v>
+      </c>
       <c r="B529" s="20"/>
       <c r="C529" s="13"/>
       <c r="D529" s="38"/>
@@ -13479,7 +13490,9 @@
       <c r="K529" s="20"/>
     </row>
     <row r="530" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A530" s="39"/>
+      <c r="A530" s="39">
+        <v>45748</v>
+      </c>
       <c r="B530" s="20"/>
       <c r="C530" s="13"/>
       <c r="D530" s="38"/>
@@ -13495,7 +13508,9 @@
       <c r="K530" s="20"/>
     </row>
     <row r="531" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A531" s="39"/>
+      <c r="A531" s="39">
+        <v>45778</v>
+      </c>
       <c r="B531" s="20"/>
       <c r="C531" s="13"/>
       <c r="D531" s="38"/>
@@ -13831,20 +13846,68 @@
       <c r="K551" s="20"/>
     </row>
     <row r="552" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A552" s="40"/>
-      <c r="B552" s="15"/>
-      <c r="C552" s="41"/>
-      <c r="D552" s="42"/>
+      <c r="A552" s="39"/>
+      <c r="B552" s="20"/>
+      <c r="C552" s="13"/>
+      <c r="D552" s="38"/>
       <c r="E552" s="9"/>
-      <c r="F552" s="15"/>
-      <c r="G552" s="41" t="str">
+      <c r="F552" s="20"/>
+      <c r="G552" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H552" s="42"/>
+      <c r="H552" s="38"/>
       <c r="I552" s="9"/>
-      <c r="J552" s="12"/>
-      <c r="K552" s="15"/>
+      <c r="J552" s="11"/>
+      <c r="K552" s="20"/>
+    </row>
+    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A553" s="39"/>
+      <c r="B553" s="20"/>
+      <c r="C553" s="13"/>
+      <c r="D553" s="38"/>
+      <c r="E553" s="9"/>
+      <c r="F553" s="20"/>
+      <c r="G553" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H553" s="38"/>
+      <c r="I553" s="9"/>
+      <c r="J553" s="11"/>
+      <c r="K553" s="20"/>
+    </row>
+    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A554" s="39"/>
+      <c r="B554" s="20"/>
+      <c r="C554" s="13"/>
+      <c r="D554" s="38"/>
+      <c r="E554" s="9"/>
+      <c r="F554" s="20"/>
+      <c r="G554" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H554" s="38"/>
+      <c r="I554" s="9"/>
+      <c r="J554" s="11"/>
+      <c r="K554" s="20"/>
+    </row>
+    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A555" s="40"/>
+      <c r="B555" s="15"/>
+      <c r="C555" s="41"/>
+      <c r="D555" s="42"/>
+      <c r="E555" s="9"/>
+      <c r="F555" s="15"/>
+      <c r="G555" s="41" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H555" s="42"/>
+      <c r="I555" s="9"/>
+      <c r="J555" s="12"/>
+      <c r="K555" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -13962,11 +14025,11 @@
       </c>
       <c r="E3" s="11"/>
       <c r="F3" s="11">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G3" s="44">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>3.1000000000000014E-2</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="J3" s="46"/>
       <c r="K3" s="34">

--- a/REGULAR/CHO/EGASAN, DELIA.xlsx
+++ b/REGULAR/CHO/EGASAN, DELIA.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr showInkAnnotation="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\CHO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\CHO\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CDD3967-EAD2-4D4F-9D23-57E8992F3B25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="310">
   <si>
     <t>PERIOD</t>
   </si>
@@ -968,7 +969,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1656,7 +1657,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1673,25 +1674,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K555" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K555" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1998,34 +1999,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K555"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A494" activePane="bottomLeft"/>
-      <selection activeCell="G11" sqref="G11"/>
-      <selection pane="bottomLeft" activeCell="E503" sqref="E503"/>
+      <pane ySplit="3696" topLeftCell="A509" activePane="bottomLeft"/>
+      <selection activeCell="B3" sqref="B3:C3"/>
+      <selection pane="bottomLeft" activeCell="E516" sqref="E516"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -2046,7 +2047,7 @@
       <c r="J2" s="56"/>
       <c r="K2" s="57"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -2064,7 +2065,7 @@
       <c r="J3" s="58"/>
       <c r="K3" s="59"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -2086,7 +2087,7 @@
       <c r="J4" s="56"/>
       <c r="K4" s="57"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -2094,7 +2095,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -2107,7 +2108,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="54" t="s">
@@ -2124,7 +2125,7 @@
       <c r="J7" s="54"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -2159,7 +2160,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -2168,7 +2169,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>190.65299999999988</v>
+        <v>190.90299999999988</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2178,12 +2179,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>187.125</v>
+        <v>188.375</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="23"/>
       <c r="B10" s="49" t="s">
         <v>72</v>
@@ -2201,7 +2202,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="47" t="s">
         <v>73</v>
       </c>
@@ -2223,7 +2224,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="23">
         <v>36403</v>
       </c>
@@ -2249,7 +2250,7 @@
         <v>36377</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="23"/>
       <c r="B13" s="20" t="s">
         <v>46</v>
@@ -2268,7 +2269,7 @@
         <v>36388</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="23"/>
       <c r="B14" s="20" t="s">
         <v>74</v>
@@ -2285,7 +2286,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="23">
         <v>36433</v>
       </c>
@@ -2305,7 +2306,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="23">
         <v>36464</v>
       </c>
@@ -2331,7 +2332,7 @@
         <v>36441</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="23"/>
       <c r="B17" s="20" t="s">
         <v>46</v>
@@ -2350,7 +2351,7 @@
         <v>36454</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="23"/>
       <c r="B18" s="20" t="s">
         <v>75</v>
@@ -2367,7 +2368,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="23">
         <v>36494</v>
       </c>
@@ -2391,7 +2392,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="23">
         <v>36525</v>
       </c>
@@ -2415,7 +2416,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="47" t="s">
         <v>78</v>
       </c>
@@ -2433,7 +2434,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="23">
         <v>36556</v>
       </c>
@@ -2459,7 +2460,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="23">
         <v>36585</v>
       </c>
@@ -2483,7 +2484,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="23"/>
       <c r="B24" s="20" t="s">
         <v>80</v>
@@ -2503,7 +2504,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="23">
         <v>36616</v>
       </c>
@@ -2527,7 +2528,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="23">
         <v>36646</v>
       </c>
@@ -2547,7 +2548,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="23">
         <v>36677</v>
       </c>
@@ -2573,7 +2574,7 @@
         <v>36664</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="23"/>
       <c r="B28" s="20" t="s">
         <v>83</v>
@@ -2593,7 +2594,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="23">
         <v>36707</v>
       </c>
@@ -2619,7 +2620,7 @@
         <v>36678</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="23">
         <v>36738</v>
       </c>
@@ -2643,7 +2644,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="23">
         <v>36769</v>
       </c>
@@ -2669,7 +2670,7 @@
         <v>36742</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="23"/>
       <c r="B32" s="20" t="s">
         <v>46</v>
@@ -2688,7 +2689,7 @@
         <v>36760</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="23"/>
       <c r="B33" s="20" t="s">
         <v>85</v>
@@ -2705,7 +2706,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="23">
         <v>36799</v>
       </c>
@@ -2729,7 +2730,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="23">
         <v>36830</v>
       </c>
@@ -2753,7 +2754,7 @@
         <v>36823</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="23"/>
       <c r="B36" s="20" t="s">
         <v>87</v>
@@ -2772,7 +2773,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="23">
         <v>36860</v>
       </c>
@@ -2796,7 +2797,7 @@
         <v>36845</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="23"/>
       <c r="B38" s="20" t="s">
         <v>49</v>
@@ -2815,7 +2816,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="23"/>
       <c r="B39" s="20" t="s">
         <v>88</v>
@@ -2832,7 +2833,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="23">
         <v>36891</v>
       </c>
@@ -2858,7 +2859,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="23"/>
       <c r="B41" s="20" t="s">
         <v>90</v>
@@ -2875,7 +2876,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="47" t="s">
         <v>92</v>
       </c>
@@ -2890,7 +2891,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="23">
         <v>36922</v>
       </c>
@@ -2914,7 +2915,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="23">
         <v>36950</v>
       </c>
@@ -2938,7 +2939,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="23">
         <v>36981</v>
       </c>
@@ -2964,7 +2965,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="23"/>
       <c r="B46" s="20" t="s">
         <v>52</v>
@@ -2983,7 +2984,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="23"/>
       <c r="B47" s="20" t="s">
         <v>98</v>
@@ -3003,7 +3004,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="23">
         <v>37011</v>
       </c>
@@ -3023,7 +3024,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="23">
         <v>37042</v>
       </c>
@@ -3049,7 +3050,7 @@
         <v>37032</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="23"/>
       <c r="B50" s="20" t="s">
         <v>99</v>
@@ -3069,7 +3070,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="23">
         <v>37072</v>
       </c>
@@ -3095,7 +3096,7 @@
         <v>37068</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="23"/>
       <c r="B52" s="20" t="s">
         <v>100</v>
@@ -3115,7 +3116,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="23">
         <v>37103</v>
       </c>
@@ -3141,7 +3142,7 @@
         <v>37077</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="23"/>
       <c r="B54" s="20" t="s">
         <v>101</v>
@@ -3161,7 +3162,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="23">
         <v>37134</v>
       </c>
@@ -3187,7 +3188,7 @@
         <v>37109</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="23"/>
       <c r="B56" s="20" t="s">
         <v>46</v>
@@ -3206,7 +3207,7 @@
         <v>37127</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="23"/>
       <c r="B57" s="20" t="s">
         <v>102</v>
@@ -3223,7 +3224,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="23">
         <v>37164</v>
       </c>
@@ -3243,7 +3244,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="23">
         <v>37195</v>
       </c>
@@ -3269,7 +3270,7 @@
         <v>37167</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="23"/>
       <c r="B60" s="20" t="s">
         <v>103</v>
@@ -3289,7 +3290,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="23">
         <v>37225</v>
       </c>
@@ -3315,7 +3316,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="23">
         <v>37256</v>
       </c>
@@ -3341,7 +3342,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="47" t="s">
         <v>106</v>
       </c>
@@ -3359,7 +3360,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="23">
         <v>37287</v>
       </c>
@@ -3383,7 +3384,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="23">
         <v>37315</v>
       </c>
@@ -3409,7 +3410,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="23"/>
       <c r="B66" s="20" t="s">
         <v>107</v>
@@ -3429,7 +3430,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="23">
         <v>37346</v>
       </c>
@@ -3455,7 +3456,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="23"/>
       <c r="B68" s="20" t="s">
         <v>84</v>
@@ -3475,7 +3476,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="23">
         <v>37376</v>
       </c>
@@ -3499,7 +3500,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="23">
         <v>37407</v>
       </c>
@@ -3523,7 +3524,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="23">
         <v>37437</v>
       </c>
@@ -3543,7 +3544,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="23">
         <v>37468</v>
       </c>
@@ -3569,7 +3570,7 @@
         <v>37460</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="23">
         <v>37499</v>
       </c>
@@ -3595,7 +3596,7 @@
         <v>37480</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="23"/>
       <c r="B74" s="20" t="s">
         <v>52</v>
@@ -3617,7 +3618,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="23">
         <v>37529</v>
       </c>
@@ -3643,7 +3644,7 @@
         <v>37516</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="23">
         <v>37560</v>
       </c>
@@ -3669,7 +3670,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="23">
         <v>37590</v>
       </c>
@@ -3695,7 +3696,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="23"/>
       <c r="B78" s="20" t="s">
         <v>61</v>
@@ -3717,7 +3718,7 @@
         <v>37603</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="23"/>
       <c r="B79" s="20" t="s">
         <v>115</v>
@@ -3737,7 +3738,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="51"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="23">
         <v>37621</v>
       </c>
@@ -3761,7 +3762,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="47" t="s">
         <v>117</v>
       </c>
@@ -3779,7 +3780,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="23">
         <v>37652</v>
       </c>
@@ -3805,7 +3806,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="23"/>
       <c r="B83" s="20" t="s">
         <v>46</v>
@@ -3826,7 +3827,7 @@
         <v>37280</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="23"/>
       <c r="B84" s="20" t="s">
         <v>45</v>
@@ -3845,7 +3846,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="23"/>
       <c r="B85" s="20" t="s">
         <v>46</v>
@@ -3864,7 +3865,7 @@
         <v>37290</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="23"/>
       <c r="B86" s="20" t="s">
         <v>118</v>
@@ -3881,7 +3882,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="23">
         <v>37680</v>
       </c>
@@ -3905,7 +3906,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="23">
         <v>37711</v>
       </c>
@@ -3929,7 +3930,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="23"/>
       <c r="B89" s="20" t="s">
         <v>76</v>
@@ -3949,7 +3950,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="23">
         <v>37741</v>
       </c>
@@ -3973,7 +3974,7 @@
         <v>37400</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="23"/>
       <c r="B91" s="20" t="s">
         <v>47</v>
@@ -3993,7 +3994,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="23"/>
       <c r="B92" s="20" t="s">
         <v>100</v>
@@ -4013,7 +4014,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="23">
         <v>37772</v>
       </c>
@@ -4033,7 +4034,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="23">
         <v>37802</v>
       </c>
@@ -4053,7 +4054,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="23">
         <v>37833</v>
       </c>
@@ -4077,7 +4078,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="23">
         <v>37864</v>
       </c>
@@ -4101,7 +4102,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="23">
         <v>37894</v>
       </c>
@@ -4125,7 +4126,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="23">
         <v>37925</v>
       </c>
@@ -4151,7 +4152,7 @@
         <v>37916</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="23"/>
       <c r="B99" s="20" t="s">
         <v>125</v>
@@ -4171,7 +4172,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="51"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="23">
         <v>37955</v>
       </c>
@@ -4195,7 +4196,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="23">
         <v>37986</v>
       </c>
@@ -4219,7 +4220,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="23"/>
       <c r="B102" s="20" t="s">
         <v>45</v>
@@ -4241,7 +4242,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="23"/>
       <c r="B103" s="20" t="s">
         <v>46</v>
@@ -4260,7 +4261,7 @@
         <v>37973</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="23"/>
       <c r="B104" s="20" t="s">
         <v>64</v>
@@ -4277,7 +4278,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="47" t="s">
         <v>129</v>
       </c>
@@ -4292,7 +4293,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="23">
         <v>38017</v>
       </c>
@@ -4318,7 +4319,7 @@
         <v>37643</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="23"/>
       <c r="B107" s="20" t="s">
         <v>100</v>
@@ -4338,7 +4339,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="23">
         <v>38046</v>
       </c>
@@ -4364,7 +4365,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="23"/>
       <c r="B109" s="20" t="s">
         <v>47</v>
@@ -4384,7 +4385,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="23"/>
       <c r="B110" s="20" t="s">
         <v>94</v>
@@ -4404,7 +4405,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="23">
         <v>38077</v>
       </c>
@@ -4428,7 +4429,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="23">
         <v>38107</v>
       </c>
@@ -4454,7 +4455,7 @@
         <v>38078</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="23"/>
       <c r="B113" s="20" t="s">
         <v>46</v>
@@ -4476,7 +4477,7 @@
         <v>38104</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="23">
         <v>38138</v>
       </c>
@@ -4502,7 +4503,7 @@
         <v>38126</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="23"/>
       <c r="B115" s="20" t="s">
         <v>47</v>
@@ -4522,7 +4523,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="23"/>
       <c r="B116" s="20" t="s">
         <v>47</v>
@@ -4542,7 +4543,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="23"/>
       <c r="B117" s="20" t="s">
         <v>132</v>
@@ -4562,7 +4563,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="23">
         <v>38168</v>
       </c>
@@ -4582,7 +4583,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="23">
         <v>38199</v>
       </c>
@@ -4606,7 +4607,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="23">
         <v>38230</v>
       </c>
@@ -4630,7 +4631,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="23">
         <v>38260</v>
       </c>
@@ -4656,7 +4657,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="23"/>
       <c r="B122" s="20" t="s">
         <v>137</v>
@@ -4676,7 +4677,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="23">
         <v>38291</v>
       </c>
@@ -4702,7 +4703,7 @@
         <v>38286</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="23"/>
       <c r="B124" s="20" t="s">
         <v>137</v>
@@ -4722,7 +4723,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="23">
         <v>38321</v>
       </c>
@@ -4746,7 +4747,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="23">
         <v>38352</v>
       </c>
@@ -4772,7 +4773,7 @@
         <v>38342</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="23"/>
       <c r="B127" s="20" t="s">
         <v>139</v>
@@ -4789,7 +4790,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="51"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="23"/>
       <c r="B128" s="20" t="s">
         <v>140</v>
@@ -4806,7 +4807,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="47" t="s">
         <v>141</v>
       </c>
@@ -4824,7 +4825,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="23">
         <v>38383</v>
       </c>
@@ -4850,7 +4851,7 @@
         <v>38370</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="23"/>
       <c r="B131" s="20" t="s">
         <v>46</v>
@@ -4869,7 +4870,7 @@
         <v>38384</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="23"/>
       <c r="B132" s="20" t="s">
         <v>84</v>
@@ -4886,7 +4887,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="23">
         <v>38411</v>
       </c>
@@ -4912,7 +4913,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="23"/>
       <c r="B134" s="20" t="s">
         <v>47</v>
@@ -4929,7 +4930,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="23"/>
       <c r="B135" s="20" t="s">
         <v>143</v>
@@ -4946,7 +4947,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="23">
         <v>38442</v>
       </c>
@@ -4970,7 +4971,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="23">
         <v>38472</v>
       </c>
@@ -4994,7 +4995,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="23">
         <v>38503</v>
       </c>
@@ -5018,7 +5019,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="23">
         <v>38533</v>
       </c>
@@ -5044,7 +5045,7 @@
         <v>38511</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="23"/>
       <c r="B140" s="20" t="s">
         <v>46</v>
@@ -5063,7 +5064,7 @@
         <v>38523</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="23"/>
       <c r="B141" s="20" t="s">
         <v>145</v>
@@ -5080,7 +5081,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="23">
         <v>38564</v>
       </c>
@@ -5106,7 +5107,7 @@
         <v>38538</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="23"/>
       <c r="B143" s="20" t="s">
         <v>64</v>
@@ -5125,7 +5126,7 @@
         <v>38545</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="23"/>
       <c r="B144" s="20" t="s">
         <v>107</v>
@@ -5142,7 +5143,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="23">
         <v>38595</v>
       </c>
@@ -5168,7 +5169,7 @@
         <v>38601</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="23"/>
       <c r="B146" s="20" t="s">
         <v>80</v>
@@ -5185,7 +5186,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="23">
         <v>38625</v>
       </c>
@@ -5211,7 +5212,7 @@
         <v>38621</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="23"/>
       <c r="B148" s="20" t="s">
         <v>146</v>
@@ -5231,7 +5232,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="23">
         <v>38656</v>
       </c>
@@ -5255,7 +5256,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="23">
         <v>38686</v>
       </c>
@@ -5279,7 +5280,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="23"/>
       <c r="B151" s="20" t="s">
         <v>47</v>
@@ -5296,7 +5297,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="23"/>
       <c r="B152" s="20" t="s">
         <v>145</v>
@@ -5313,7 +5314,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="23">
         <v>38717</v>
       </c>
@@ -5337,7 +5338,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="47" t="s">
         <v>149</v>
       </c>
@@ -5355,7 +5356,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="23">
         <v>38748</v>
       </c>
@@ -5381,7 +5382,7 @@
         <v>38737</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="23">
         <v>38776</v>
       </c>
@@ -5407,7 +5408,7 @@
         <v>38758</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="23">
         <v>38807</v>
       </c>
@@ -5431,7 +5432,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="23">
         <v>38837</v>
       </c>
@@ -5455,7 +5456,7 @@
         <v>38811</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="23">
         <v>38868</v>
       </c>
@@ -5479,7 +5480,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="23">
         <v>38898</v>
       </c>
@@ -5499,7 +5500,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="23">
         <v>38929</v>
       </c>
@@ -5525,7 +5526,7 @@
         <v>38903</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="23"/>
       <c r="B162" s="20" t="s">
         <v>64</v>
@@ -5544,7 +5545,7 @@
         <v>38925</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="23"/>
       <c r="B163" s="20" t="s">
         <v>47</v>
@@ -5561,7 +5562,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="23"/>
       <c r="B164" s="20" t="s">
         <v>100</v>
@@ -5578,7 +5579,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="23">
         <v>38960</v>
       </c>
@@ -5602,7 +5603,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="23">
         <v>38990</v>
       </c>
@@ -5628,7 +5629,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="23"/>
       <c r="B167" s="20" t="s">
         <v>153</v>
@@ -5648,7 +5649,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="23">
         <v>39021</v>
       </c>
@@ -5674,7 +5675,7 @@
         <v>39008</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="23"/>
       <c r="B169" s="20" t="s">
         <v>154</v>
@@ -5694,7 +5695,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="23">
         <v>39051</v>
       </c>
@@ -5718,7 +5719,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="23">
         <v>39082</v>
       </c>
@@ -5744,7 +5745,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="23"/>
       <c r="B172" s="20" t="s">
         <v>47</v>
@@ -5761,7 +5762,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="23"/>
       <c r="B173" s="20" t="s">
         <v>64</v>
@@ -5778,7 +5779,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="23"/>
       <c r="B174" s="20" t="s">
         <v>147</v>
@@ -5798,7 +5799,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="47" t="s">
         <v>157</v>
       </c>
@@ -5816,7 +5817,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="23">
         <v>39113</v>
       </c>
@@ -5840,7 +5841,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="23"/>
       <c r="B177" s="20" t="s">
         <v>64</v>
@@ -5859,7 +5860,7 @@
         <v>39113</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="23"/>
       <c r="B178" s="20" t="s">
         <v>160</v>
@@ -5876,7 +5877,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="23">
         <v>39141</v>
       </c>
@@ -5900,7 +5901,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="23">
         <v>39172</v>
       </c>
@@ -5924,7 +5925,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="23"/>
       <c r="B181" s="20" t="s">
         <v>160</v>
@@ -5944,7 +5945,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="23">
         <v>39202</v>
       </c>
@@ -5968,7 +5969,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" s="23">
         <v>39233</v>
       </c>
@@ -5994,7 +5995,7 @@
         <v>39210</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="23"/>
       <c r="B184" s="20" t="s">
         <v>47</v>
@@ -6011,7 +6012,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="23"/>
       <c r="B185" s="20" t="s">
         <v>64</v>
@@ -6030,7 +6031,7 @@
         <v>39231</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="23"/>
       <c r="B186" s="20" t="s">
         <v>147</v>
@@ -6047,7 +6048,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" s="23">
         <v>39263</v>
       </c>
@@ -6071,7 +6072,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" s="23">
         <v>39294</v>
       </c>
@@ -6097,7 +6098,7 @@
         <v>39290</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="23"/>
       <c r="B189" s="20" t="s">
         <v>154</v>
@@ -6117,7 +6118,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" s="23">
         <v>39325</v>
       </c>
@@ -6143,7 +6144,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" s="23"/>
       <c r="B191" s="20" t="s">
         <v>145</v>
@@ -6163,7 +6164,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" s="23">
         <v>39355</v>
       </c>
@@ -6187,7 +6188,7 @@
       <c r="J192" s="11"/>
       <c r="K192" s="20"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" s="23">
         <v>39386</v>
       </c>
@@ -6213,7 +6214,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="23"/>
       <c r="B194" s="20" t="s">
         <v>101</v>
@@ -6233,7 +6234,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" s="23">
         <v>39416</v>
       </c>
@@ -6259,7 +6260,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" s="23"/>
       <c r="B196" s="20" t="s">
         <v>154</v>
@@ -6279,7 +6280,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" s="23">
         <v>39447</v>
       </c>
@@ -6303,7 +6304,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="47" t="s">
         <v>167</v>
       </c>
@@ -6321,7 +6322,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" s="23">
         <v>39478</v>
       </c>
@@ -6347,7 +6348,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" s="23">
         <v>39507</v>
       </c>
@@ -6369,7 +6370,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" s="23"/>
       <c r="B201" s="20" t="s">
         <v>84</v>
@@ -6389,7 +6390,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" s="23">
         <v>39538</v>
       </c>
@@ -6415,7 +6416,7 @@
         <v>39512</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" s="23"/>
       <c r="B203" s="20" t="s">
         <v>146</v>
@@ -6435,7 +6436,7 @@
       <c r="J203" s="11"/>
       <c r="K203" s="20"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" s="23">
         <v>39568</v>
       </c>
@@ -6459,7 +6460,7 @@
         <v>39547</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" s="23"/>
       <c r="B205" s="20" t="s">
         <v>160</v>
@@ -6479,7 +6480,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" s="23">
         <v>39599</v>
       </c>
@@ -6505,7 +6506,7 @@
         <v>39582</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" s="23"/>
       <c r="B207" s="20" t="s">
         <v>47</v>
@@ -6522,7 +6523,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" s="23"/>
       <c r="B208" s="20" t="s">
         <v>47</v>
@@ -6539,7 +6540,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" s="23"/>
       <c r="B209" s="20" t="s">
         <v>170</v>
@@ -6556,7 +6557,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" s="23">
         <v>39629</v>
       </c>
@@ -6580,7 +6581,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" s="23">
         <v>39660</v>
       </c>
@@ -6606,7 +6607,7 @@
         <v>39653</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" s="23"/>
       <c r="B212" s="20" t="s">
         <v>46</v>
@@ -6625,7 +6626,7 @@
         <v>39645</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" s="23"/>
       <c r="B213" s="20" t="s">
         <v>174</v>
@@ -6642,7 +6643,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" s="23">
         <v>39691</v>
       </c>
@@ -6666,7 +6667,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" s="23">
         <v>39721</v>
       </c>
@@ -6690,7 +6691,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216" s="23">
         <v>39752</v>
       </c>
@@ -6716,7 +6717,7 @@
         <v>39758</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A217" s="23"/>
       <c r="B217" s="20" t="s">
         <v>176</v>
@@ -6736,7 +6737,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" s="23">
         <v>39782</v>
       </c>
@@ -6762,7 +6763,7 @@
         <v>39771</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A219" s="23"/>
       <c r="B219" s="20" t="s">
         <v>47</v>
@@ -6779,7 +6780,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220" s="23"/>
       <c r="B220" s="20" t="s">
         <v>55</v>
@@ -6798,7 +6799,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" s="23"/>
       <c r="B221" s="20" t="s">
         <v>169</v>
@@ -6815,7 +6816,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" s="23">
         <v>39813</v>
       </c>
@@ -6839,7 +6840,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A223" s="47" t="s">
         <v>179</v>
       </c>
@@ -6857,7 +6858,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A224" s="23">
         <v>39844</v>
       </c>
@@ -6883,7 +6884,7 @@
         <v>39836</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A225" s="23"/>
       <c r="B225" s="20" t="s">
         <v>180</v>
@@ -6903,7 +6904,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226" s="23">
         <v>39872</v>
       </c>
@@ -6929,7 +6930,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A227" s="23"/>
       <c r="B227" s="20" t="s">
         <v>46</v>
@@ -6948,7 +6949,7 @@
         <v>39870</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A228" s="23"/>
       <c r="B228" s="20" t="s">
         <v>156</v>
@@ -6967,7 +6968,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A229" s="23"/>
       <c r="B229" s="20" t="s">
         <v>181</v>
@@ -6984,7 +6985,7 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A230" s="23">
         <v>39903</v>
       </c>
@@ -7010,7 +7011,7 @@
         <v>39882</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A231" s="23"/>
       <c r="B231" s="20" t="s">
         <v>47</v>
@@ -7027,7 +7028,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A232" s="23"/>
       <c r="B232" s="20" t="s">
         <v>184</v>
@@ -7044,7 +7045,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233" s="23">
         <v>39933</v>
       </c>
@@ -7064,7 +7065,7 @@
       <c r="J233" s="11"/>
       <c r="K233" s="20"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A234" s="23">
         <v>39964</v>
       </c>
@@ -7090,7 +7091,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A235" s="23"/>
       <c r="B235" s="20" t="s">
         <v>186</v>
@@ -7109,7 +7110,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A236" s="23">
         <v>39994</v>
       </c>
@@ -7135,7 +7136,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A237" s="23"/>
       <c r="B237" s="20" t="s">
         <v>170</v>
@@ -7155,7 +7156,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A238" s="23">
         <v>40025</v>
       </c>
@@ -7181,7 +7182,7 @@
         <v>40007</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A239" s="23"/>
       <c r="B239" s="20" t="s">
         <v>190</v>
@@ -7201,7 +7202,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A240" s="23">
         <v>40056</v>
       </c>
@@ -7225,7 +7226,7 @@
       <c r="J240" s="11"/>
       <c r="K240" s="20"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A241" s="23">
         <v>40086</v>
       </c>
@@ -7249,7 +7250,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A242" s="23">
         <v>40117</v>
       </c>
@@ -7275,7 +7276,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A243" s="23"/>
       <c r="B243" s="20" t="s">
         <v>46</v>
@@ -7294,7 +7295,7 @@
         <v>40101</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A244" s="23"/>
       <c r="B244" s="20" t="s">
         <v>193</v>
@@ -7311,7 +7312,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A245" s="23">
         <v>40147</v>
       </c>
@@ -7335,7 +7336,7 @@
       <c r="J245" s="11"/>
       <c r="K245" s="20"/>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A246" s="23">
         <v>40178</v>
       </c>
@@ -7359,7 +7360,7 @@
       <c r="J246" s="11"/>
       <c r="K246" s="20"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A247" s="47" t="s">
         <v>197</v>
       </c>
@@ -7377,7 +7378,7 @@
       <c r="J247" s="11"/>
       <c r="K247" s="20"/>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A248" s="23">
         <v>40209</v>
       </c>
@@ -7401,7 +7402,7 @@
       <c r="J248" s="11"/>
       <c r="K248" s="20"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A249" s="23">
         <v>40237</v>
       </c>
@@ -7427,7 +7428,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A250" s="23"/>
       <c r="B250" s="20" t="s">
         <v>199</v>
@@ -7447,7 +7448,7 @@
       <c r="J250" s="11"/>
       <c r="K250" s="20"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A251" s="23">
         <v>40268</v>
       </c>
@@ -7469,7 +7470,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="20"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A252" s="23">
         <v>40298</v>
       </c>
@@ -7493,7 +7494,7 @@
       <c r="J252" s="11"/>
       <c r="K252" s="20"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A253" s="23">
         <v>40329</v>
       </c>
@@ -7519,7 +7520,7 @@
         <v>40324</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A254" s="23"/>
       <c r="B254" s="20" t="s">
         <v>46</v>
@@ -7541,7 +7542,7 @@
         <v>40310</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A255" s="23"/>
       <c r="B255" s="20" t="s">
         <v>202</v>
@@ -7561,7 +7562,7 @@
       <c r="J255" s="11"/>
       <c r="K255" s="20"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A256" s="23">
         <v>40359</v>
       </c>
@@ -7585,7 +7586,7 @@
       <c r="J256" s="11"/>
       <c r="K256" s="20"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A257" s="23">
         <v>40390</v>
       </c>
@@ -7609,7 +7610,7 @@
       <c r="J257" s="11"/>
       <c r="K257" s="20"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A258" s="23">
         <v>40421</v>
       </c>
@@ -7635,7 +7636,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A259" s="23"/>
       <c r="B259" s="20" t="s">
         <v>205</v>
@@ -7654,7 +7655,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A260" s="23"/>
       <c r="B260" s="20" t="s">
         <v>206</v>
@@ -7671,7 +7672,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A261" s="23">
         <v>40451</v>
       </c>
@@ -7697,7 +7698,7 @@
         <v>40430</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A262" s="23"/>
       <c r="B262" s="20" t="s">
         <v>82</v>
@@ -7717,7 +7718,7 @@
       <c r="J262" s="11"/>
       <c r="K262" s="20"/>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A263" s="23">
         <v>40482</v>
       </c>
@@ -7741,7 +7742,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A264" s="23">
         <v>40512</v>
       </c>
@@ -7767,7 +7768,7 @@
         <v>40499</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A265" s="23"/>
       <c r="B265" s="20" t="s">
         <v>55</v>
@@ -7786,7 +7787,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A266" s="23"/>
       <c r="B266" s="20" t="s">
         <v>210</v>
@@ -7803,7 +7804,7 @@
       <c r="J266" s="11"/>
       <c r="K266" s="20"/>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A267" s="23">
         <v>40543</v>
       </c>
@@ -7829,7 +7830,7 @@
         <v>40526</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A268" s="23"/>
       <c r="B268" s="20" t="s">
         <v>212</v>
@@ -7849,7 +7850,7 @@
       <c r="J268" s="11"/>
       <c r="K268" s="20"/>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A269" s="47" t="s">
         <v>213</v>
       </c>
@@ -7867,7 +7868,7 @@
       <c r="J269" s="11"/>
       <c r="K269" s="20"/>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A270" s="23">
         <v>40574</v>
       </c>
@@ -7891,7 +7892,7 @@
       <c r="J270" s="11"/>
       <c r="K270" s="20"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A271" s="23">
         <v>40602</v>
       </c>
@@ -7917,7 +7918,7 @@
         <v>40582</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A272" s="23"/>
       <c r="B272" s="20" t="s">
         <v>46</v>
@@ -7936,7 +7937,7 @@
         <v>40586</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A273" s="23"/>
       <c r="B273" s="20" t="s">
         <v>215</v>
@@ -7953,7 +7954,7 @@
       <c r="J273" s="11"/>
       <c r="K273" s="20"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A274" s="23">
         <v>40633</v>
       </c>
@@ -7979,7 +7980,7 @@
         <v>40603</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A275" s="23"/>
       <c r="B275" s="20" t="s">
         <v>47</v>
@@ -7998,7 +7999,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A276" s="23"/>
       <c r="B276" s="20" t="s">
         <v>216</v>
@@ -8013,7 +8014,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="20"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A277" s="23">
         <v>40663</v>
       </c>
@@ -8039,7 +8040,7 @@
         <v>40662</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A278" s="23"/>
       <c r="B278" s="20" t="s">
         <v>146</v>
@@ -8059,7 +8060,7 @@
       <c r="J278" s="11"/>
       <c r="K278" s="20"/>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A279" s="23">
         <v>40694</v>
       </c>
@@ -8085,7 +8086,7 @@
         <v>40674</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A280" s="23"/>
       <c r="B280" s="20" t="s">
         <v>218</v>
@@ -8105,7 +8106,7 @@
       <c r="J280" s="11"/>
       <c r="K280" s="20"/>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A281" s="23">
         <v>40724</v>
       </c>
@@ -8129,7 +8130,7 @@
       <c r="J281" s="11"/>
       <c r="K281" s="20"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A282" s="23">
         <v>40755</v>
       </c>
@@ -8153,7 +8154,7 @@
       <c r="J282" s="11"/>
       <c r="K282" s="20"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A283" s="23">
         <v>40786</v>
       </c>
@@ -8179,7 +8180,7 @@
         <v>40763</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A284" s="23"/>
       <c r="B284" s="20" t="s">
         <v>46</v>
@@ -8198,7 +8199,7 @@
         <v>40771</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A285" s="23"/>
       <c r="B285" s="20" t="s">
         <v>64</v>
@@ -8217,7 +8218,7 @@
         <v>40787</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A286" s="23"/>
       <c r="B286" s="20" t="s">
         <v>46</v>
@@ -8236,7 +8237,7 @@
         <v>40786</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A287" s="23"/>
       <c r="B287" s="20" t="s">
         <v>46</v>
@@ -8255,7 +8256,7 @@
         <v>40788</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A288" s="23"/>
       <c r="B288" s="20" t="s">
         <v>220</v>
@@ -8272,7 +8273,7 @@
       <c r="J288" s="11"/>
       <c r="K288" s="20"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A289" s="23">
         <v>40816</v>
       </c>
@@ -8296,7 +8297,7 @@
       <c r="J289" s="11"/>
       <c r="K289" s="20"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A290" s="23">
         <v>40847</v>
       </c>
@@ -8320,7 +8321,7 @@
       <c r="J290" s="11"/>
       <c r="K290" s="20"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A291" s="23">
         <v>40877</v>
       </c>
@@ -8344,7 +8345,7 @@
       <c r="J291" s="11"/>
       <c r="K291" s="20"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A292" s="23">
         <v>40908</v>
       </c>
@@ -8370,7 +8371,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A293" s="23"/>
       <c r="B293" s="20" t="s">
         <v>46</v>
@@ -8389,7 +8390,7 @@
         <v>40886</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A294" s="23"/>
       <c r="B294" s="20" t="s">
         <v>225</v>
@@ -8406,7 +8407,7 @@
       <c r="J294" s="11"/>
       <c r="K294" s="20"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A295" s="47" t="s">
         <v>227</v>
       </c>
@@ -8421,7 +8422,7 @@
       <c r="J295" s="11"/>
       <c r="K295" s="20"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A296" s="23">
         <v>40939</v>
       </c>
@@ -8447,7 +8448,7 @@
         <v>40919</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A297" s="23"/>
       <c r="B297" s="20" t="s">
         <v>228</v>
@@ -8464,7 +8465,7 @@
       <c r="J297" s="11"/>
       <c r="K297" s="20"/>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A298" s="23">
         <v>40968</v>
       </c>
@@ -8490,7 +8491,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A299" s="23"/>
       <c r="B299" s="20" t="s">
         <v>230</v>
@@ -8510,7 +8511,7 @@
       <c r="J299" s="11"/>
       <c r="K299" s="20"/>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A300" s="23">
         <v>40999</v>
       </c>
@@ -8536,7 +8537,7 @@
         <v>40988</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A301" s="23"/>
       <c r="B301" s="20" t="s">
         <v>231</v>
@@ -8556,7 +8557,7 @@
       <c r="J301" s="11"/>
       <c r="K301" s="20"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A302" s="23">
         <v>41029</v>
       </c>
@@ -8582,7 +8583,7 @@
         <v>41019</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A303" s="23"/>
       <c r="B303" s="20" t="s">
         <v>47</v>
@@ -8599,7 +8600,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A304" s="23"/>
       <c r="B304" s="20" t="s">
         <v>224</v>
@@ -8616,7 +8617,7 @@
       <c r="J304" s="11"/>
       <c r="K304" s="20"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A305" s="23">
         <v>41060</v>
       </c>
@@ -8642,7 +8643,7 @@
         <v>41060</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A306" s="23"/>
       <c r="B306" s="20" t="s">
         <v>111</v>
@@ -8662,7 +8663,7 @@
       <c r="J306" s="11"/>
       <c r="K306" s="20"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A307" s="23">
         <v>41090</v>
       </c>
@@ -8686,7 +8687,7 @@
       <c r="J307" s="11"/>
       <c r="K307" s="20"/>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A308" s="23">
         <v>41121</v>
       </c>
@@ -8710,7 +8711,7 @@
       <c r="J308" s="11"/>
       <c r="K308" s="20"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A309" s="23">
         <v>41152</v>
       </c>
@@ -8736,7 +8737,7 @@
         <v>41134</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A310" s="23"/>
       <c r="B310" s="20" t="s">
         <v>234</v>
@@ -8753,7 +8754,7 @@
       <c r="J310" s="11"/>
       <c r="K310" s="51"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A311" s="23">
         <v>41182</v>
       </c>
@@ -8779,7 +8780,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A312" s="23"/>
       <c r="B312" s="20" t="s">
         <v>46</v>
@@ -8798,7 +8799,7 @@
         <v>41180</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A313" s="23"/>
       <c r="B313" s="20" t="s">
         <v>160</v>
@@ -8815,7 +8816,7 @@
       <c r="J313" s="11"/>
       <c r="K313" s="20"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A314" s="23">
         <v>41213</v>
       </c>
@@ -8839,7 +8840,7 @@
       <c r="J314" s="11"/>
       <c r="K314" s="20"/>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A315" s="23">
         <v>41243</v>
       </c>
@@ -8863,7 +8864,7 @@
       <c r="J315" s="11"/>
       <c r="K315" s="20"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A316" s="23">
         <v>41274</v>
       </c>
@@ -8889,7 +8890,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A317" s="23"/>
       <c r="B317" s="20" t="s">
         <v>241</v>
@@ -8909,7 +8910,7 @@
       <c r="J317" s="11"/>
       <c r="K317" s="20"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A318" s="47" t="s">
         <v>240</v>
       </c>
@@ -8927,7 +8928,7 @@
       <c r="J318" s="11"/>
       <c r="K318" s="20"/>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A319" s="23">
         <v>41305</v>
       </c>
@@ -8949,7 +8950,7 @@
       <c r="J319" s="11"/>
       <c r="K319" s="20"/>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A320" s="23"/>
       <c r="B320" s="20" t="s">
         <v>155</v>
@@ -8969,7 +8970,7 @@
       <c r="J320" s="11"/>
       <c r="K320" s="20"/>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A321" s="23">
         <v>41333</v>
       </c>
@@ -8989,7 +8990,7 @@
       <c r="J321" s="11"/>
       <c r="K321" s="20"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A322" s="23">
         <v>41364</v>
       </c>
@@ -9009,7 +9010,7 @@
       <c r="J322" s="11"/>
       <c r="K322" s="20"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A323" s="23">
         <v>41394</v>
       </c>
@@ -9033,7 +9034,7 @@
       <c r="J323" s="11"/>
       <c r="K323" s="20"/>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A324" s="23">
         <v>41425</v>
       </c>
@@ -9057,7 +9058,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A325" s="23"/>
       <c r="B325" s="20" t="s">
         <v>243</v>
@@ -9077,7 +9078,7 @@
       <c r="J325" s="11"/>
       <c r="K325" s="20"/>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A326" s="23">
         <v>41455</v>
       </c>
@@ -9103,7 +9104,7 @@
         <v>41438</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A327" s="23"/>
       <c r="B327" s="20" t="s">
         <v>46</v>
@@ -9122,7 +9123,7 @@
         <v>41450</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A328" s="23"/>
       <c r="B328" s="20" t="s">
         <v>245</v>
@@ -9142,7 +9143,7 @@
       <c r="J328" s="11"/>
       <c r="K328" s="20"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A329" s="23">
         <v>41486</v>
       </c>
@@ -9168,7 +9169,7 @@
         <v>41478</v>
       </c>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A330" s="23"/>
       <c r="B330" s="20" t="s">
         <v>246</v>
@@ -9188,7 +9189,7 @@
       <c r="J330" s="11"/>
       <c r="K330" s="51"/>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A331" s="23">
         <v>41517</v>
       </c>
@@ -9212,7 +9213,7 @@
       <c r="J331" s="11"/>
       <c r="K331" s="20"/>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A332" s="23">
         <v>41547</v>
       </c>
@@ -9238,7 +9239,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A333" s="23"/>
       <c r="B333" s="20" t="s">
         <v>212</v>
@@ -9256,7 +9257,7 @@
       <c r="J333" s="11"/>
       <c r="K333" s="20"/>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A334" s="23">
         <v>41578</v>
       </c>
@@ -9280,7 +9281,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A335" s="23"/>
       <c r="B335" s="20" t="s">
         <v>52</v>
@@ -9297,7 +9298,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A336" s="23"/>
       <c r="B336" s="20" t="s">
         <v>46</v>
@@ -9314,7 +9315,7 @@
         <v>41565</v>
       </c>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A337" s="23"/>
       <c r="B337" s="20" t="s">
         <v>252</v>
@@ -9331,7 +9332,7 @@
       <c r="J337" s="11"/>
       <c r="K337" s="20"/>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A338" s="23">
         <v>41608</v>
       </c>
@@ -9357,7 +9358,7 @@
         <v>41583</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A339" s="23"/>
       <c r="B339" s="20" t="s">
         <v>52</v>
@@ -9376,7 +9377,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A340" s="23"/>
       <c r="B340" s="20" t="s">
         <v>46</v>
@@ -9395,7 +9396,7 @@
         <v>41606</v>
       </c>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A341" s="23"/>
       <c r="B341" s="20" t="s">
         <v>249</v>
@@ -9412,7 +9413,7 @@
       <c r="J341" s="11"/>
       <c r="K341" s="20"/>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A342" s="23">
         <v>41639</v>
       </c>
@@ -9438,7 +9439,7 @@
         <v>41631</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A343" s="47" t="s">
         <v>254</v>
       </c>
@@ -9456,7 +9457,7 @@
       <c r="J343" s="11"/>
       <c r="K343" s="51"/>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A344" s="23">
         <v>41670</v>
       </c>
@@ -9480,7 +9481,7 @@
       <c r="J344" s="11"/>
       <c r="K344" s="20"/>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A345" s="23">
         <v>41698</v>
       </c>
@@ -9504,7 +9505,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A346" s="23"/>
       <c r="B346" s="20" t="s">
         <v>46</v>
@@ -9523,7 +9524,7 @@
         <v>41682</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A347" s="23"/>
       <c r="B347" s="20" t="s">
         <v>64</v>
@@ -9542,7 +9543,7 @@
         <v>41718</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A348" s="23"/>
       <c r="B348" s="20" t="s">
         <v>257</v>
@@ -9559,7 +9560,7 @@
       <c r="J348" s="11"/>
       <c r="K348" s="20"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A349" s="23">
         <v>41729</v>
       </c>
@@ -9583,7 +9584,7 @@
         <v>41719</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A350" s="23"/>
       <c r="B350" s="20" t="s">
         <v>259</v>
@@ -9601,7 +9602,7 @@
       <c r="J350" s="11"/>
       <c r="K350" s="20"/>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A351" s="23">
         <v>41759</v>
       </c>
@@ -9627,7 +9628,7 @@
         <v>41740</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A352" s="23"/>
       <c r="B352" s="20" t="s">
         <v>47</v>
@@ -9644,7 +9645,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A353" s="23"/>
       <c r="B353" s="20" t="s">
         <v>260</v>
@@ -9659,7 +9660,7 @@
       <c r="J353" s="11"/>
       <c r="K353" s="20"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A354" s="23">
         <v>41790</v>
       </c>
@@ -9683,7 +9684,7 @@
       <c r="J354" s="11"/>
       <c r="K354" s="20"/>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A355" s="23">
         <v>41820</v>
       </c>
@@ -9709,7 +9710,7 @@
         <v>41803</v>
       </c>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A356" s="23"/>
       <c r="B356" s="20" t="s">
         <v>46</v>
@@ -9728,7 +9729,7 @@
         <v>41806</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A357" s="23"/>
       <c r="B357" s="20" t="s">
         <v>263</v>
@@ -9743,7 +9744,7 @@
       <c r="J357" s="11"/>
       <c r="K357" s="20"/>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A358" s="23">
         <v>41851</v>
       </c>
@@ -9769,7 +9770,7 @@
         <v>41837</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A359" s="23"/>
       <c r="B359" s="20" t="s">
         <v>101</v>
@@ -9787,7 +9788,7 @@
       <c r="J359" s="11"/>
       <c r="K359" s="20"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A360" s="23">
         <v>41882</v>
       </c>
@@ -9813,7 +9814,7 @@
         <v>41858</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A361" s="23"/>
       <c r="B361" s="20" t="s">
         <v>264</v>
@@ -9833,7 +9834,7 @@
       <c r="J361" s="11"/>
       <c r="K361" s="20"/>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A362" s="23">
         <v>41912</v>
       </c>
@@ -9859,7 +9860,7 @@
         <v>41907</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A363" s="23"/>
       <c r="B363" s="20" t="s">
         <v>265</v>
@@ -9879,7 +9880,7 @@
       <c r="J363" s="11"/>
       <c r="K363" s="20"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A364" s="23">
         <v>41943</v>
       </c>
@@ -9903,7 +9904,7 @@
       <c r="J364" s="11"/>
       <c r="K364" s="20"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A365" s="23">
         <v>41973</v>
       </c>
@@ -9927,7 +9928,7 @@
       <c r="J365" s="11"/>
       <c r="K365" s="20"/>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A366" s="23">
         <v>42004</v>
       </c>
@@ -9953,7 +9954,7 @@
         <v>41992</v>
       </c>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A367" s="23"/>
       <c r="B367" s="20" t="s">
         <v>269</v>
@@ -9973,7 +9974,7 @@
       <c r="J367" s="11"/>
       <c r="K367" s="20"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A368" s="47" t="s">
         <v>270</v>
       </c>
@@ -9991,7 +9992,7 @@
       <c r="J368" s="11"/>
       <c r="K368" s="20"/>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A369" s="23">
         <v>42035</v>
       </c>
@@ -10015,7 +10016,7 @@
       <c r="J369" s="11"/>
       <c r="K369" s="20"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A370" s="23">
         <v>42063</v>
       </c>
@@ -10039,7 +10040,7 @@
       <c r="J370" s="11"/>
       <c r="K370" s="20"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A371" s="23">
         <v>42094</v>
       </c>
@@ -10063,7 +10064,7 @@
       <c r="J371" s="11"/>
       <c r="K371" s="20"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A372" s="23">
         <v>42124</v>
       </c>
@@ -10089,7 +10090,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A373" s="23"/>
       <c r="B373" s="20" t="s">
         <v>273</v>
@@ -10106,7 +10107,7 @@
       <c r="J373" s="11"/>
       <c r="K373" s="20"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A374" s="23">
         <v>42155</v>
       </c>
@@ -10130,7 +10131,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A375" s="23"/>
       <c r="B375" s="20" t="s">
         <v>275</v>
@@ -10147,7 +10148,7 @@
       <c r="J375" s="11"/>
       <c r="K375" s="20"/>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A376" s="23">
         <v>42185</v>
       </c>
@@ -10173,7 +10174,7 @@
         <v>42164</v>
       </c>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A377" s="23"/>
       <c r="B377" s="20" t="s">
         <v>277</v>
@@ -10193,7 +10194,7 @@
       <c r="J377" s="11"/>
       <c r="K377" s="20"/>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A378" s="23">
         <v>42216</v>
       </c>
@@ -10217,7 +10218,7 @@
       <c r="J378" s="11"/>
       <c r="K378" s="20"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A379" s="23">
         <v>42247</v>
       </c>
@@ -10241,7 +10242,7 @@
       <c r="J379" s="11"/>
       <c r="K379" s="20"/>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A380" s="23">
         <v>42277</v>
       </c>
@@ -10265,7 +10266,7 @@
       <c r="J380" s="11"/>
       <c r="K380" s="20"/>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A381" s="23">
         <v>42308</v>
       </c>
@@ -10291,7 +10292,7 @@
         <v>42307</v>
       </c>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A382" s="23"/>
       <c r="B382" s="20" t="s">
         <v>279</v>
@@ -10311,7 +10312,7 @@
       <c r="J382" s="11"/>
       <c r="K382" s="20"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A383" s="23">
         <v>42338</v>
       </c>
@@ -10337,7 +10338,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A384" s="23"/>
       <c r="B384" s="20" t="s">
         <v>281</v>
@@ -10357,7 +10358,7 @@
       <c r="J384" s="11"/>
       <c r="K384" s="20"/>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A385" s="23">
         <v>42369</v>
       </c>
@@ -10381,7 +10382,7 @@
       <c r="J385" s="11"/>
       <c r="K385" s="20"/>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A386" s="47" t="s">
         <v>284</v>
       </c>
@@ -10399,7 +10400,7 @@
       <c r="J386" s="11"/>
       <c r="K386" s="20"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A387" s="23">
         <v>42400</v>
       </c>
@@ -10425,7 +10426,7 @@
         <v>42377</v>
       </c>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A388" s="23"/>
       <c r="B388" s="20" t="s">
         <v>285</v>
@@ -10442,7 +10443,7 @@
       <c r="J388" s="11"/>
       <c r="K388" s="51"/>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A389" s="23">
         <v>42429</v>
       </c>
@@ -10468,7 +10469,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A390" s="23"/>
       <c r="B390" s="20" t="s">
         <v>46</v>
@@ -10487,7 +10488,7 @@
         <v>42405</v>
       </c>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A391" s="23"/>
       <c r="B391" s="20" t="s">
         <v>286</v>
@@ -10504,7 +10505,7 @@
       <c r="J391" s="11"/>
       <c r="K391" s="20"/>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A392" s="23">
         <v>42460</v>
       </c>
@@ -10528,7 +10529,7 @@
       <c r="J392" s="11"/>
       <c r="K392" s="20"/>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A393" s="23">
         <v>42490</v>
       </c>
@@ -10554,7 +10555,7 @@
         <v>42465</v>
       </c>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A394" s="23"/>
       <c r="B394" s="20" t="s">
         <v>256</v>
@@ -10571,7 +10572,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A395" s="23"/>
       <c r="B395" s="20" t="s">
         <v>46</v>
@@ -10590,7 +10591,7 @@
         <v>42489</v>
       </c>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A396" s="23"/>
       <c r="B396" s="20" t="s">
         <v>136</v>
@@ -10607,7 +10608,7 @@
       <c r="J396" s="11"/>
       <c r="K396" s="20"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A397" s="23">
         <v>42521</v>
       </c>
@@ -10631,7 +10632,7 @@
       <c r="J397" s="11"/>
       <c r="K397" s="20"/>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A398" s="23">
         <v>42551</v>
       </c>
@@ -10655,7 +10656,7 @@
       <c r="J398" s="11"/>
       <c r="K398" s="20"/>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A399" s="23">
         <v>42582</v>
       </c>
@@ -10681,7 +10682,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A400" s="23"/>
       <c r="B400" s="20" t="s">
         <v>290</v>
@@ -10701,7 +10702,7 @@
       <c r="J400" s="11"/>
       <c r="K400" s="20"/>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A401" s="23">
         <v>42613</v>
       </c>
@@ -10725,7 +10726,7 @@
       <c r="J401" s="11"/>
       <c r="K401" s="20"/>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A402" s="23">
         <v>42643</v>
       </c>
@@ -10749,7 +10750,7 @@
       <c r="J402" s="11"/>
       <c r="K402" s="20"/>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A403" s="23">
         <v>42674</v>
       </c>
@@ -10775,7 +10776,7 @@
         <v>42653</v>
       </c>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A404" s="23"/>
       <c r="B404" s="20" t="s">
         <v>77</v>
@@ -10795,7 +10796,7 @@
       <c r="J404" s="11"/>
       <c r="K404" s="20"/>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A405" s="23">
         <v>42704</v>
       </c>
@@ -10819,7 +10820,7 @@
       <c r="J405" s="11"/>
       <c r="K405" s="20"/>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A406" s="23">
         <v>42735</v>
       </c>
@@ -10845,7 +10846,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A407" s="23"/>
       <c r="B407" s="20" t="s">
         <v>296</v>
@@ -10865,7 +10866,7 @@
       <c r="J407" s="11"/>
       <c r="K407" s="20"/>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A408" s="47" t="s">
         <v>295</v>
       </c>
@@ -10880,7 +10881,7 @@
       <c r="J408" s="11"/>
       <c r="K408" s="20"/>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A409" s="23">
         <v>42766</v>
       </c>
@@ -10906,7 +10907,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A410" s="23"/>
       <c r="B410" s="20" t="s">
         <v>46</v>
@@ -10925,7 +10926,7 @@
         <v>42760</v>
       </c>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A411" s="23">
         <v>42794</v>
       </c>
@@ -10945,7 +10946,7 @@
       <c r="J411" s="11"/>
       <c r="K411" s="20"/>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A412" s="23">
         <v>42825</v>
       </c>
@@ -10965,7 +10966,7 @@
       <c r="J412" s="11"/>
       <c r="K412" s="20"/>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A413" s="23">
         <v>42855</v>
       </c>
@@ -10985,7 +10986,7 @@
       <c r="J413" s="11"/>
       <c r="K413" s="20"/>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A414" s="23">
         <v>42886</v>
       </c>
@@ -11009,7 +11010,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A415" s="23">
         <v>42916</v>
       </c>
@@ -11035,7 +11036,7 @@
         <v>42914</v>
       </c>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A416" s="23">
         <v>42947</v>
       </c>
@@ -11055,7 +11056,7 @@
       <c r="J416" s="11"/>
       <c r="K416" s="20"/>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A417" s="23">
         <v>42978</v>
       </c>
@@ -11075,7 +11076,7 @@
       <c r="J417" s="11"/>
       <c r="K417" s="20"/>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A418" s="23">
         <v>43008</v>
       </c>
@@ -11095,7 +11096,7 @@
       <c r="J418" s="11"/>
       <c r="K418" s="20"/>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A419" s="23">
         <v>43039</v>
       </c>
@@ -11115,7 +11116,7 @@
       <c r="J419" s="11"/>
       <c r="K419" s="20"/>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A420" s="23">
         <v>43069</v>
       </c>
@@ -11139,7 +11140,7 @@
       <c r="J420" s="11"/>
       <c r="K420" s="20"/>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A421" s="23">
         <v>43100</v>
       </c>
@@ -11165,7 +11166,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A422" s="47" t="s">
         <v>44</v>
       </c>
@@ -11183,7 +11184,7 @@
       <c r="J422" s="11"/>
       <c r="K422" s="20"/>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A423" s="39">
         <v>43101</v>
       </c>
@@ -11203,7 +11204,7 @@
       <c r="J423" s="11"/>
       <c r="K423" s="20"/>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A424" s="39">
         <v>43132</v>
       </c>
@@ -11229,7 +11230,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A425" s="39"/>
       <c r="B425" s="20" t="s">
         <v>46</v>
@@ -11248,7 +11249,7 @@
         <v>43133</v>
       </c>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A426" s="39">
         <v>43160</v>
       </c>
@@ -11274,7 +11275,7 @@
         <v>43179</v>
       </c>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A427" s="39">
         <v>43191</v>
       </c>
@@ -11294,7 +11295,7 @@
       <c r="J427" s="11"/>
       <c r="K427" s="20"/>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A428" s="39">
         <v>43221</v>
       </c>
@@ -11318,7 +11319,7 @@
         <v>43249</v>
       </c>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A429" s="39">
         <v>43252</v>
       </c>
@@ -11344,7 +11345,7 @@
         <v>43252</v>
       </c>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A430" s="39"/>
       <c r="B430" s="20" t="s">
         <v>46</v>
@@ -11363,7 +11364,7 @@
         <v>43277</v>
       </c>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A431" s="39">
         <v>43282</v>
       </c>
@@ -11389,7 +11390,7 @@
         <v>43291</v>
       </c>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A432" s="39">
         <v>43313</v>
       </c>
@@ -11409,7 +11410,7 @@
       <c r="J432" s="11"/>
       <c r="K432" s="20"/>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A433" s="39">
         <v>43344</v>
       </c>
@@ -11429,7 +11430,7 @@
       <c r="J433" s="11"/>
       <c r="K433" s="20"/>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A434" s="39">
         <v>43374</v>
       </c>
@@ -11455,7 +11456,7 @@
         <v>43404</v>
       </c>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A435" s="39">
         <v>43405</v>
       </c>
@@ -11475,7 +11476,7 @@
       <c r="J435" s="11"/>
       <c r="K435" s="20"/>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A436" s="39">
         <v>43435</v>
       </c>
@@ -11501,7 +11502,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A437" s="47" t="s">
         <v>51</v>
       </c>
@@ -11519,7 +11520,7 @@
       <c r="J437" s="11"/>
       <c r="K437" s="20"/>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A438" s="39">
         <v>43466</v>
       </c>
@@ -11545,7 +11546,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A439" s="39">
         <v>43497</v>
       </c>
@@ -11571,7 +11572,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A440" s="39">
         <v>43525</v>
       </c>
@@ -11597,7 +11598,7 @@
         <v>43531</v>
       </c>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A441" s="39">
         <v>43556</v>
       </c>
@@ -11617,7 +11618,7 @@
       <c r="J441" s="11"/>
       <c r="K441" s="20"/>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A442" s="39">
         <v>43586</v>
       </c>
@@ -11643,7 +11644,7 @@
         <v>43606</v>
       </c>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A443" s="39"/>
       <c r="B443" s="20" t="s">
         <v>47</v>
@@ -11660,7 +11661,7 @@
         <v>43614</v>
       </c>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A444" s="39">
         <v>43617</v>
       </c>
@@ -11680,7 +11681,7 @@
       <c r="J444" s="11"/>
       <c r="K444" s="20"/>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A445" s="39">
         <v>43647</v>
       </c>
@@ -11700,7 +11701,7 @@
       <c r="J445" s="11"/>
       <c r="K445" s="20"/>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A446" s="39">
         <v>43678</v>
       </c>
@@ -11720,7 +11721,7 @@
       <c r="J446" s="11"/>
       <c r="K446" s="20"/>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A447" s="39">
         <v>43709</v>
       </c>
@@ -11740,7 +11741,7 @@
       <c r="J447" s="11"/>
       <c r="K447" s="20"/>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A448" s="39">
         <v>43739</v>
       </c>
@@ -11766,7 +11767,7 @@
         <v>43745</v>
       </c>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A449" s="39">
         <v>43770</v>
       </c>
@@ -11786,7 +11787,7 @@
       <c r="J449" s="11"/>
       <c r="K449" s="20"/>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A450" s="39">
         <v>43800</v>
       </c>
@@ -11810,7 +11811,7 @@
       <c r="J450" s="11"/>
       <c r="K450" s="20"/>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A451" s="47" t="s">
         <v>56</v>
       </c>
@@ -11828,7 +11829,7 @@
       <c r="J451" s="11"/>
       <c r="K451" s="20"/>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A452" s="39">
         <v>43831</v>
       </c>
@@ -11854,7 +11855,7 @@
         <v>43837</v>
       </c>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A453" s="39"/>
       <c r="B453" s="20" t="s">
         <v>57</v>
@@ -11871,7 +11872,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A454" s="39">
         <v>43862</v>
       </c>
@@ -11891,7 +11892,7 @@
       <c r="J454" s="11"/>
       <c r="K454" s="20"/>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A455" s="39">
         <v>43891</v>
       </c>
@@ -11911,7 +11912,7 @@
       <c r="J455" s="11"/>
       <c r="K455" s="20"/>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A456" s="39">
         <v>43922</v>
       </c>
@@ -11931,7 +11932,7 @@
       <c r="J456" s="11"/>
       <c r="K456" s="20"/>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A457" s="39">
         <v>43952</v>
       </c>
@@ -11951,7 +11952,7 @@
       <c r="J457" s="11"/>
       <c r="K457" s="20"/>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A458" s="39">
         <v>43983</v>
       </c>
@@ -11977,7 +11978,7 @@
         <v>44008</v>
       </c>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A459" s="39">
         <v>44013</v>
       </c>
@@ -11997,7 +11998,7 @@
       <c r="J459" s="11"/>
       <c r="K459" s="20"/>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A460" s="39">
         <v>44044</v>
       </c>
@@ -12017,7 +12018,7 @@
       <c r="J460" s="11"/>
       <c r="K460" s="20"/>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A461" s="39">
         <v>44075</v>
       </c>
@@ -12043,7 +12044,7 @@
         <v>44090</v>
       </c>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A462" s="39">
         <v>44105</v>
       </c>
@@ -12063,7 +12064,7 @@
       <c r="J462" s="11"/>
       <c r="K462" s="20"/>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A463" s="39">
         <v>44136</v>
       </c>
@@ -12083,7 +12084,7 @@
       <c r="J463" s="11"/>
       <c r="K463" s="20"/>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A464" s="39">
         <v>44166</v>
       </c>
@@ -12109,7 +12110,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A465" s="47" t="s">
         <v>60</v>
       </c>
@@ -12127,7 +12128,7 @@
       <c r="J465" s="11"/>
       <c r="K465" s="20"/>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A466" s="39">
         <v>44197</v>
       </c>
@@ -12147,7 +12148,7 @@
       <c r="J466" s="11"/>
       <c r="K466" s="20"/>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A467" s="39">
         <v>44228</v>
       </c>
@@ -12173,7 +12174,7 @@
         <v>44238</v>
       </c>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A468" s="39"/>
       <c r="B468" s="20" t="s">
         <v>46</v>
@@ -12192,7 +12193,7 @@
         <v>44251</v>
       </c>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A469" s="39">
         <v>44256</v>
       </c>
@@ -12212,7 +12213,7 @@
       <c r="J469" s="11"/>
       <c r="K469" s="20"/>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A470" s="39">
         <v>44287</v>
       </c>
@@ -12232,7 +12233,7 @@
       <c r="J470" s="11"/>
       <c r="K470" s="20"/>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A471" s="39">
         <v>44317</v>
       </c>
@@ -12252,7 +12253,7 @@
       <c r="J471" s="11"/>
       <c r="K471" s="20"/>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A472" s="39">
         <v>44348</v>
       </c>
@@ -12272,7 +12273,7 @@
       <c r="J472" s="11"/>
       <c r="K472" s="20"/>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A473" s="39">
         <v>44378</v>
       </c>
@@ -12292,7 +12293,7 @@
       <c r="J473" s="11"/>
       <c r="K473" s="20"/>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A474" s="39">
         <v>44409</v>
       </c>
@@ -12312,7 +12313,7 @@
       <c r="J474" s="11"/>
       <c r="K474" s="20"/>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A475" s="39">
         <v>44440</v>
       </c>
@@ -12338,7 +12339,7 @@
         <v>44484</v>
       </c>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A476" s="39">
         <v>44470</v>
       </c>
@@ -12358,7 +12359,7 @@
       <c r="J476" s="11"/>
       <c r="K476" s="20"/>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A477" s="39">
         <v>44501</v>
       </c>
@@ -12384,7 +12385,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A478" s="39">
         <v>44531</v>
       </c>
@@ -12408,7 +12409,7 @@
       <c r="J478" s="11"/>
       <c r="K478" s="20"/>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A479" s="47" t="s">
         <v>63</v>
       </c>
@@ -12426,7 +12427,7 @@
       <c r="J479" s="11"/>
       <c r="K479" s="20"/>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A480" s="39">
         <v>44562</v>
       </c>
@@ -12446,7 +12447,7 @@
       <c r="J480" s="11"/>
       <c r="K480" s="20"/>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A481" s="39">
         <v>44593</v>
       </c>
@@ -12472,7 +12473,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A482" s="39">
         <v>44621</v>
       </c>
@@ -12496,7 +12497,7 @@
       <c r="J482" s="11"/>
       <c r="K482" s="20"/>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A483" s="39">
         <v>44652</v>
       </c>
@@ -12520,7 +12521,7 @@
         <v>44658</v>
       </c>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A484" s="39"/>
       <c r="B484" s="20" t="s">
         <v>65</v>
@@ -12539,7 +12540,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A485" s="39">
         <v>44682</v>
       </c>
@@ -12565,7 +12566,7 @@
         <v>44711</v>
       </c>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A486" s="39"/>
       <c r="B486" s="20" t="s">
         <v>302</v>
@@ -12585,7 +12586,7 @@
       <c r="J486" s="11"/>
       <c r="K486" s="51"/>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A487" s="39">
         <v>44713</v>
       </c>
@@ -12609,7 +12610,7 @@
       <c r="J487" s="11"/>
       <c r="K487" s="20"/>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A488" s="39">
         <v>44743</v>
       </c>
@@ -12633,7 +12634,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A489" s="39"/>
       <c r="B489" s="20" t="s">
         <v>100</v>
@@ -12653,7 +12654,7 @@
       <c r="J489" s="11"/>
       <c r="K489" s="20"/>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A490" s="39">
         <v>44774</v>
       </c>
@@ -12673,7 +12674,7 @@
       <c r="J490" s="11"/>
       <c r="K490" s="20"/>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A491" s="39">
         <v>44805</v>
       </c>
@@ -12697,7 +12698,7 @@
       <c r="J491" s="11"/>
       <c r="K491" s="20"/>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A492" s="39">
         <v>44835</v>
       </c>
@@ -12717,7 +12718,7 @@
       <c r="J492" s="11"/>
       <c r="K492" s="20"/>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A493" s="39">
         <v>44866</v>
       </c>
@@ -12741,7 +12742,7 @@
       <c r="J493" s="11"/>
       <c r="K493" s="20"/>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A494" s="39">
         <v>44896</v>
       </c>
@@ -12765,7 +12766,7 @@
       <c r="J494" s="11"/>
       <c r="K494" s="20"/>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A495" s="47" t="s">
         <v>69</v>
       </c>
@@ -12783,7 +12784,7 @@
       <c r="J495" s="11"/>
       <c r="K495" s="20"/>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A496" s="39">
         <v>44927</v>
       </c>
@@ -12809,7 +12810,7 @@
         <v>44950</v>
       </c>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A497" s="39"/>
       <c r="B497" s="20" t="s">
         <v>86</v>
@@ -12829,7 +12830,7 @@
       <c r="J497" s="11"/>
       <c r="K497" s="51"/>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A498" s="39">
         <v>44958</v>
       </c>
@@ -12855,7 +12856,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A499" s="39"/>
       <c r="B499" s="20" t="s">
         <v>84</v>
@@ -12875,7 +12876,7 @@
       <c r="J499" s="11"/>
       <c r="K499" s="20"/>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A500" s="39">
         <v>44986</v>
       </c>
@@ -12901,7 +12902,7 @@
         <v>45002</v>
       </c>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A501" s="39"/>
       <c r="B501" s="20" t="s">
         <v>46</v>
@@ -12923,7 +12924,7 @@
         <v>44998</v>
       </c>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A502" s="39"/>
       <c r="B502" s="20" t="s">
         <v>309</v>
@@ -12943,7 +12944,7 @@
       <c r="J502" s="11"/>
       <c r="K502" s="51"/>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A503" s="39">
         <v>45017</v>
       </c>
@@ -12963,7 +12964,7 @@
       <c r="J503" s="11"/>
       <c r="K503" s="20"/>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A504" s="39">
         <v>45047</v>
       </c>
@@ -12989,7 +12990,7 @@
         <v>45075</v>
       </c>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A505" s="39">
         <v>45078</v>
       </c>
@@ -13013,7 +13014,7 @@
       <c r="J505" s="11"/>
       <c r="K505" s="20"/>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A506" s="39">
         <v>45108</v>
       </c>
@@ -13039,7 +13040,7 @@
         <v>45121</v>
       </c>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A507" s="39">
         <v>45139</v>
       </c>
@@ -13059,7 +13060,7 @@
       <c r="J507" s="11"/>
       <c r="K507" s="20"/>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A508" s="39">
         <v>45170</v>
       </c>
@@ -13085,7 +13086,7 @@
         <v>45187</v>
       </c>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A509" s="39">
         <v>45200</v>
       </c>
@@ -13111,7 +13112,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A510" s="39"/>
       <c r="B510" s="20" t="s">
         <v>107</v>
@@ -13131,7 +13132,7 @@
       <c r="J510" s="11"/>
       <c r="K510" s="20"/>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A511" s="39">
         <v>45231</v>
       </c>
@@ -13157,7 +13158,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A512" s="39"/>
       <c r="B512" s="20" t="s">
         <v>308</v>
@@ -13177,7 +13178,7 @@
       <c r="J512" s="11"/>
       <c r="K512" s="20"/>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A513" s="39">
         <v>45261</v>
       </c>
@@ -13201,7 +13202,7 @@
       <c r="J513" s="11"/>
       <c r="K513" s="20"/>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A514" s="47" t="s">
         <v>306</v>
       </c>
@@ -13219,25 +13220,33 @@
       <c r="J514" s="11"/>
       <c r="K514" s="20"/>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A515" s="39">
         <v>45292</v>
       </c>
-      <c r="B515" s="20"/>
-      <c r="C515" s="13"/>
-      <c r="D515" s="38"/>
+      <c r="B515" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C515" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D515" s="38">
+        <v>1</v>
+      </c>
       <c r="E515" s="9"/>
       <c r="F515" s="20"/>
-      <c r="G515" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G515" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H515" s="38"/>
       <c r="I515" s="9"/>
       <c r="J515" s="11"/>
-      <c r="K515" s="20"/>
-    </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K515" s="51">
+        <v>45321</v>
+      </c>
+    </row>
+    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A516" s="39">
         <v>45323</v>
       </c>
@@ -13255,7 +13264,7 @@
       <c r="J516" s="11"/>
       <c r="K516" s="20"/>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A517" s="39">
         <v>45352</v>
       </c>
@@ -13273,7 +13282,7 @@
       <c r="J517" s="11"/>
       <c r="K517" s="20"/>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A518" s="39">
         <v>45383</v>
       </c>
@@ -13291,7 +13300,7 @@
       <c r="J518" s="11"/>
       <c r="K518" s="20"/>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A519" s="39">
         <v>45413</v>
       </c>
@@ -13309,7 +13318,7 @@
       <c r="J519" s="11"/>
       <c r="K519" s="20"/>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A520" s="39">
         <v>45444</v>
       </c>
@@ -13327,7 +13336,7 @@
       <c r="J520" s="11"/>
       <c r="K520" s="20"/>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A521" s="39">
         <v>45474</v>
       </c>
@@ -13345,7 +13354,7 @@
       <c r="J521" s="11"/>
       <c r="K521" s="20"/>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A522" s="39">
         <v>45505</v>
       </c>
@@ -13363,7 +13372,7 @@
       <c r="J522" s="11"/>
       <c r="K522" s="20"/>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A523" s="39">
         <v>45536</v>
       </c>
@@ -13381,7 +13390,7 @@
       <c r="J523" s="11"/>
       <c r="K523" s="20"/>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A524" s="39">
         <v>45566</v>
       </c>
@@ -13399,7 +13408,7 @@
       <c r="J524" s="11"/>
       <c r="K524" s="20"/>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A525" s="39">
         <v>45597</v>
       </c>
@@ -13417,7 +13426,7 @@
       <c r="J525" s="11"/>
       <c r="K525" s="20"/>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A526" s="39">
         <v>45627</v>
       </c>
@@ -13435,7 +13444,7 @@
       <c r="J526" s="11"/>
       <c r="K526" s="20"/>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A527" s="39">
         <v>45658</v>
       </c>
@@ -13453,7 +13462,7 @@
       <c r="J527" s="11"/>
       <c r="K527" s="20"/>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A528" s="39">
         <v>45689</v>
       </c>
@@ -13471,7 +13480,7 @@
       <c r="J528" s="11"/>
       <c r="K528" s="20"/>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A529" s="39">
         <v>45717</v>
       </c>
@@ -13489,7 +13498,7 @@
       <c r="J529" s="11"/>
       <c r="K529" s="20"/>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A530" s="39">
         <v>45748</v>
       </c>
@@ -13507,7 +13516,7 @@
       <c r="J530" s="11"/>
       <c r="K530" s="20"/>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A531" s="39">
         <v>45778</v>
       </c>
@@ -13525,7 +13534,7 @@
       <c r="J531" s="11"/>
       <c r="K531" s="20"/>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A532" s="39"/>
       <c r="B532" s="20"/>
       <c r="C532" s="13"/>
@@ -13541,7 +13550,7 @@
       <c r="J532" s="11"/>
       <c r="K532" s="20"/>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A533" s="39"/>
       <c r="B533" s="20"/>
       <c r="C533" s="13"/>
@@ -13557,7 +13566,7 @@
       <c r="J533" s="11"/>
       <c r="K533" s="20"/>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A534" s="39"/>
       <c r="B534" s="20"/>
       <c r="C534" s="13"/>
@@ -13573,7 +13582,7 @@
       <c r="J534" s="11"/>
       <c r="K534" s="20"/>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A535" s="39"/>
       <c r="B535" s="20"/>
       <c r="C535" s="13"/>
@@ -13589,7 +13598,7 @@
       <c r="J535" s="11"/>
       <c r="K535" s="20"/>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A536" s="39"/>
       <c r="B536" s="20"/>
       <c r="C536" s="13"/>
@@ -13605,7 +13614,7 @@
       <c r="J536" s="11"/>
       <c r="K536" s="20"/>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A537" s="39"/>
       <c r="B537" s="20"/>
       <c r="C537" s="13"/>
@@ -13621,7 +13630,7 @@
       <c r="J537" s="11"/>
       <c r="K537" s="20"/>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A538" s="39"/>
       <c r="B538" s="20"/>
       <c r="C538" s="13"/>
@@ -13637,7 +13646,7 @@
       <c r="J538" s="11"/>
       <c r="K538" s="20"/>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A539" s="39"/>
       <c r="B539" s="20"/>
       <c r="C539" s="13"/>
@@ -13653,7 +13662,7 @@
       <c r="J539" s="11"/>
       <c r="K539" s="20"/>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A540" s="39"/>
       <c r="B540" s="20"/>
       <c r="C540" s="13"/>
@@ -13669,7 +13678,7 @@
       <c r="J540" s="11"/>
       <c r="K540" s="20"/>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A541" s="39"/>
       <c r="B541" s="20"/>
       <c r="C541" s="13"/>
@@ -13685,7 +13694,7 @@
       <c r="J541" s="11"/>
       <c r="K541" s="20"/>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A542" s="39"/>
       <c r="B542" s="20"/>
       <c r="C542" s="13"/>
@@ -13701,7 +13710,7 @@
       <c r="J542" s="11"/>
       <c r="K542" s="20"/>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A543" s="39"/>
       <c r="B543" s="20"/>
       <c r="C543" s="13"/>
@@ -13717,7 +13726,7 @@
       <c r="J543" s="11"/>
       <c r="K543" s="20"/>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A544" s="39"/>
       <c r="B544" s="20"/>
       <c r="C544" s="13"/>
@@ -13733,7 +13742,7 @@
       <c r="J544" s="11"/>
       <c r="K544" s="20"/>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A545" s="39"/>
       <c r="B545" s="20"/>
       <c r="C545" s="13"/>
@@ -13749,7 +13758,7 @@
       <c r="J545" s="11"/>
       <c r="K545" s="20"/>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A546" s="39"/>
       <c r="B546" s="20"/>
       <c r="C546" s="13"/>
@@ -13765,7 +13774,7 @@
       <c r="J546" s="11"/>
       <c r="K546" s="20"/>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A547" s="39"/>
       <c r="B547" s="20"/>
       <c r="C547" s="13"/>
@@ -13781,7 +13790,7 @@
       <c r="J547" s="11"/>
       <c r="K547" s="20"/>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A548" s="39"/>
       <c r="B548" s="20"/>
       <c r="C548" s="13"/>
@@ -13797,7 +13806,7 @@
       <c r="J548" s="11"/>
       <c r="K548" s="20"/>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A549" s="39"/>
       <c r="B549" s="20"/>
       <c r="C549" s="13"/>
@@ -13813,7 +13822,7 @@
       <c r="J549" s="11"/>
       <c r="K549" s="20"/>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A550" s="39"/>
       <c r="B550" s="20"/>
       <c r="C550" s="13"/>
@@ -13829,7 +13838,7 @@
       <c r="J550" s="11"/>
       <c r="K550" s="20"/>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A551" s="39"/>
       <c r="B551" s="20"/>
       <c r="C551" s="13"/>
@@ -13845,7 +13854,7 @@
       <c r="J551" s="11"/>
       <c r="K551" s="20"/>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A552" s="39"/>
       <c r="B552" s="20"/>
       <c r="C552" s="13"/>
@@ -13861,7 +13870,7 @@
       <c r="J552" s="11"/>
       <c r="K552" s="20"/>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A553" s="39"/>
       <c r="B553" s="20"/>
       <c r="C553" s="13"/>
@@ -13877,7 +13886,7 @@
       <c r="J553" s="11"/>
       <c r="K553" s="20"/>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A554" s="39"/>
       <c r="B554" s="20"/>
       <c r="C554" s="13"/>
@@ -13893,7 +13902,7 @@
       <c r="J554" s="11"/>
       <c r="K554" s="20"/>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A555" s="40"/>
       <c r="B555" s="15"/>
       <c r="C555" s="41"/>
@@ -13924,10 +13933,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -13950,28 +13959,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="36" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="36" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="62" t="s">
         <v>33</v>
       </c>
@@ -13984,7 +13993,7 @@
       <c r="K1" s="63"/>
       <c r="L1" s="63"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -14013,7 +14022,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>21.481000000000002</v>
       </c>
@@ -14041,17 +14050,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="37" t="s">
         <v>28</v>
       </c>
@@ -14072,7 +14081,7 @@
       <c r="K6" s="64"/>
       <c r="L6" s="64"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="36">
         <v>1</v>
       </c>
@@ -14099,7 +14108,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="36">
         <v>2</v>
       </c>
@@ -14125,7 +14134,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="36">
         <v>3</v>
       </c>
@@ -14151,7 +14160,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="36">
         <v>4</v>
       </c>
@@ -14177,7 +14186,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="36">
         <v>5</v>
       </c>
@@ -14203,7 +14212,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="36">
         <v>6</v>
       </c>
@@ -14229,7 +14238,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="36">
         <v>7</v>
       </c>
@@ -14255,7 +14264,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="36">
         <v>8</v>
       </c>
@@ -14281,7 +14290,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="36">
         <v>9</v>
       </c>
@@ -14301,7 +14310,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="36">
         <v>10</v>
       </c>
@@ -14321,7 +14330,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="36">
         <v>11</v>
       </c>
@@ -14341,7 +14350,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="36">
         <v>12</v>
       </c>
@@ -14362,7 +14371,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="36">
         <v>13</v>
       </c>
@@ -14383,7 +14392,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="36">
         <v>14</v>
       </c>
@@ -14404,7 +14413,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="36">
         <v>15</v>
       </c>
@@ -14425,7 +14434,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="36">
         <v>16</v>
       </c>
@@ -14446,7 +14455,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="36">
         <v>17</v>
       </c>
@@ -14467,7 +14476,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="36">
         <v>18</v>
       </c>
@@ -14488,7 +14497,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="36">
         <v>19</v>
       </c>
@@ -14509,7 +14518,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="36">
         <v>20</v>
       </c>
@@ -14530,7 +14539,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="36">
         <v>21</v>
       </c>
@@ -14551,7 +14560,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="36">
         <v>22</v>
       </c>
@@ -14572,7 +14581,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="36">
         <v>23</v>
       </c>
@@ -14593,7 +14602,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="36">
         <v>24</v>
       </c>
@@ -14614,7 +14623,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="36">
         <v>25</v>
       </c>
@@ -14635,7 +14644,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="36">
         <v>26</v>
       </c>
@@ -14656,7 +14665,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="36">
         <v>27</v>
       </c>
@@ -14677,7 +14686,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="36">
         <v>28</v>
       </c>
@@ -14698,7 +14707,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="36">
         <v>29</v>
       </c>
@@ -14719,7 +14728,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="36">
         <v>30</v>
       </c>
@@ -14740,7 +14749,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="36">
         <v>31</v>
       </c>
@@ -14761,7 +14770,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="36">
         <v>32</v>
       </c>
@@ -14770,7 +14779,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="36">
         <v>33</v>
       </c>
@@ -14779,7 +14788,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="36">
         <v>34</v>
       </c>
@@ -14788,7 +14797,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="36">
         <v>35</v>
       </c>
@@ -14797,7 +14806,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="36">
         <v>36</v>
       </c>
@@ -14806,7 +14815,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="36">
         <v>37</v>
       </c>
@@ -14815,7 +14824,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="36">
         <v>38</v>
       </c>
@@ -14824,7 +14833,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="36">
         <v>39</v>
       </c>
@@ -14833,7 +14842,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="36">
         <v>40</v>
       </c>
@@ -14842,7 +14851,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="36">
         <v>41</v>
       </c>
@@ -14851,7 +14860,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="36">
         <v>42</v>
       </c>
@@ -14860,7 +14869,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="36">
         <v>43</v>
       </c>
@@ -14869,7 +14878,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="36">
         <v>44</v>
       </c>
@@ -14878,7 +14887,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="36">
         <v>45</v>
       </c>
@@ -14887,7 +14896,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="36">
         <v>46</v>
       </c>
@@ -14896,7 +14905,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="36">
         <v>47</v>
       </c>
@@ -14905,7 +14914,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="36">
         <v>48</v>
       </c>
@@ -14914,7 +14923,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="36">
         <v>49</v>
       </c>
@@ -14923,7 +14932,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="36">
         <v>50</v>
       </c>
@@ -14932,7 +14941,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="36">
         <v>51</v>
       </c>
@@ -14941,7 +14950,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="36">
         <v>52</v>
       </c>
@@ -14950,7 +14959,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="36">
         <v>53</v>
       </c>
@@ -14959,7 +14968,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="36">
         <v>54</v>
       </c>
@@ -14968,7 +14977,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="36">
         <v>55</v>
       </c>
@@ -14977,7 +14986,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="36">
         <v>56</v>
       </c>
@@ -14986,7 +14995,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="36">
         <v>57</v>
       </c>
@@ -14995,7 +15004,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="36">
         <v>58</v>
       </c>
@@ -15004,7 +15013,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="36">
         <v>59</v>
       </c>
@@ -15013,7 +15022,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="36">
         <v>60</v>
       </c>
@@ -15022,7 +15031,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
